--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\algoritmo_genetico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E34CD-4986-4113-9F2C-4846DFEF26F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2904459A-D802-48E4-BEE0-C9B0203F8941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estibas" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8427" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8202" uniqueCount="1141">
   <si>
     <t>ESTIBA</t>
   </si>
@@ -2999,18 +2999,6 @@
     <t>CENTROSIG</t>
   </si>
   <si>
-    <t>MoviReal</t>
-  </si>
-  <si>
-    <t>Pzas Prop</t>
-  </si>
-  <si>
-    <t>PzsxPda</t>
-  </si>
-  <si>
-    <t>SIP Monitor</t>
-  </si>
-  <si>
     <t>ENTRADA</t>
   </si>
   <si>
@@ -3038,9 +3026,6 @@
     <t>LAC2</t>
   </si>
   <si>
-    <t>[{"pieces":28,"platada":5,"location":"7E2"}]</t>
-  </si>
-  <si>
     <t>20/05/2025. 10:15:49</t>
   </si>
   <si>
@@ -3053,12 +3038,6 @@
     <t>20/05/2025. 10:27:26</t>
   </si>
   <si>
-    <t>20/05/2025. 10:27:27</t>
-  </si>
-  <si>
-    <t>20/05/2025. 10:33:15</t>
-  </si>
-  <si>
     <t>20/05/2025. 10:33:16</t>
   </si>
   <si>
@@ -3110,9 +3089,6 @@
     <t>TRA2</t>
   </si>
   <si>
-    <t>[{"pieces":162,"platada":11,"location":"7F6"}]</t>
-  </si>
-  <si>
     <t>23/05/2025. 01:03:01</t>
   </si>
   <si>
@@ -3212,9 +3188,6 @@
     <t>23/05/2025. 02:06:38</t>
   </si>
   <si>
-    <t>[{"pieces":80,"platada":10,"location":"7F6"}]</t>
-  </si>
-  <si>
     <t>23/05/2025. 02:06:39</t>
   </si>
   <si>
@@ -3272,9 +3245,6 @@
     <t>196.85</t>
   </si>
   <si>
-    <t>[{"pieces":48,"platada":12,"location":"7F1"}]</t>
-  </si>
-  <si>
     <t>23/05/2025. 02:51:19</t>
   </si>
   <si>
@@ -3302,9 +3272,6 @@
     <t>23/05/2025. 03:19:01</t>
   </si>
   <si>
-    <t>[{"pieces":36,"platada":4,"location":"7F1"}]</t>
-  </si>
-  <si>
     <t>23/05/2025. 03:19:02</t>
   </si>
   <si>
@@ -3359,9 +3326,6 @@
     <t>23/05/2025. 04:32:05</t>
   </si>
   <si>
-    <t>[{"pieces":55,"platada":12,"location":"7D9"}]</t>
-  </si>
-  <si>
     <t>23/05/2025. 04:32:06</t>
   </si>
   <si>
@@ -3392,9 +3356,6 @@
     <t>23/05/2025. 05:29:18</t>
   </si>
   <si>
-    <t>[{"pieces":72,"platada":12,"location":"7D9"}]</t>
-  </si>
-  <si>
     <t>23/05/2025. 05:29:19</t>
   </si>
   <si>
@@ -3429,9 +3390,6 @@
   </si>
   <si>
     <t>23/05/2025. 06:44:18</t>
-  </si>
-  <si>
-    <t>[{"pieces":80,"platada":12,"location":"7D9"}]</t>
   </si>
   <si>
     <t>23/05/2025. 06:44:19</t>
@@ -3550,13 +3508,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3839,8 +3805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1116"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3848,7 +3814,8 @@
     <col min="1" max="1" width="8.7109375" style="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="14" max="14" width="26" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -47275,5029 +47242,4107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723F9AEC-0A63-4794-9C16-93C59AE1C0EB}">
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="9.140625" style="5"/>
+    <col min="14" max="14" width="30.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" style="5" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="5"/>
+    <col min="18" max="18" width="16.5703125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="5" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="5" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="5"/>
+    <col min="22" max="22" width="15.7109375" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="T1" t="s">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>986</v>
       </c>
-      <c r="U1" t="s">
+      <c r="D2" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E2" s="5">
+        <v>5175402</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>28300</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J2" s="5">
+        <v>619</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="M2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="6">
+        <v>45797.250416666669</v>
+      </c>
+      <c r="O2" s="6">
+        <v>45797.251620370371</v>
+      </c>
+      <c r="P2" s="5">
+        <v>85331</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="5">
+        <v>936860</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>59209</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="J3" s="5">
+        <v>441</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>45797.423611111109</v>
+      </c>
+      <c r="O3" s="6">
+        <v>45797.42763888889</v>
+      </c>
+      <c r="P3" s="5">
+        <v>9173</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="E4" s="5">
+        <v>936860</v>
+      </c>
+      <c r="F4" s="5">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>59209</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="J4" s="5">
+        <v>441</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>45797.42765046296</v>
+      </c>
+      <c r="O4" s="6">
+        <v>45797.43167824074</v>
+      </c>
+      <c r="P4" s="5">
+        <v>9173</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="E5" s="5">
+        <v>936860</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>59209</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="J5" s="5">
+        <v>441</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>45797.431689814817</v>
+      </c>
+      <c r="O5" s="6">
+        <v>45797.435717592591</v>
+      </c>
+      <c r="P5" s="5">
+        <v>9173</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="E6" s="5">
+        <v>936860</v>
+      </c>
+      <c r="F6" s="5">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>59209</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="J6" s="5">
+        <v>441</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>45797.439768518518</v>
+      </c>
+      <c r="O6" s="6">
+        <v>45797.443796296298</v>
+      </c>
+      <c r="P6" s="5">
+        <v>9173</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E7" s="5">
+        <v>936860</v>
+      </c>
+      <c r="F7" s="5">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>59209</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="J7" s="5">
+        <v>441</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>45797.443807870368</v>
+      </c>
+      <c r="O7" s="6">
+        <v>45797.447835648149</v>
+      </c>
+      <c r="P7" s="5">
+        <v>9173</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E8" s="5">
         <v>5175402</v>
       </c>
-      <c r="F2">
+      <c r="F8" s="5">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G8" s="5">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>28300</v>
-      </c>
-      <c r="I2" t="s">
-        <v>992</v>
-      </c>
-      <c r="J2">
+      <c r="H8" s="5">
+        <v>59440</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="J8" s="5">
         <v>619</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L8" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="6">
+        <v>45798.047627314816</v>
+      </c>
+      <c r="O8" s="6">
+        <v>45798.048831018517</v>
+      </c>
+      <c r="P8" s="5">
+        <v>85331</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5060101</v>
+      </c>
+      <c r="F9" s="5">
+        <v>47</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>28903</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J9" s="5">
+        <v>351</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="N9" s="6">
+        <v>45799.966921296298</v>
+      </c>
+      <c r="O9" s="6">
+        <v>45799.974953703706</v>
+      </c>
+      <c r="P9" s="5">
+        <v>84971</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E10" s="5">
+        <v>947303</v>
+      </c>
+      <c r="F10" s="5">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5">
+        <v>59595</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J10" s="5">
+        <v>668</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="M10" s="5">
+        <v>5000</v>
+      </c>
+      <c r="N10" s="6">
+        <v>45800.037453703706</v>
+      </c>
+      <c r="O10" s="6">
+        <v>45800.059282407405</v>
+      </c>
+      <c r="P10" s="5">
+        <v>9148</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5726207</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>57721</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J11" s="5">
+        <v>351</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M11" s="5">
+        <v>4000</v>
+      </c>
+      <c r="N11" s="6">
+        <v>45800.037453703706</v>
+      </c>
+      <c r="O11" s="6">
+        <v>45800.037453703706</v>
+      </c>
+      <c r="P11" s="5">
+        <v>84971</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B12" s="5">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5726208</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5">
+        <v>26827</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J12" s="5">
+        <v>351</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3000</v>
+      </c>
+      <c r="N12" s="6">
+        <v>45800.037453703706</v>
+      </c>
+      <c r="O12" s="6">
+        <v>45800.037453703706</v>
+      </c>
+      <c r="P12" s="5">
+        <v>84971</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B13" s="5">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F13" s="5">
+        <v>20</v>
+      </c>
+      <c r="G13" s="5">
+        <v>11</v>
+      </c>
+      <c r="H13" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J13" s="5">
+        <v>714</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>45800.040972222225</v>
+      </c>
+      <c r="O13" s="6">
+        <v>45800.043749999997</v>
+      </c>
+      <c r="P13" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q13" s="5" t="s">
         <v>993</v>
-      </c>
-      <c r="M2">
-        <v>1000</v>
-      </c>
-      <c r="N2" t="s">
-        <v>990</v>
-      </c>
-      <c r="O2" t="s">
-        <v>991</v>
-      </c>
-      <c r="P2">
-        <v>85331</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" t="s">
-        <v>666</v>
-      </c>
-      <c r="S2">
-        <v>67</v>
-      </c>
-      <c r="T2">
-        <v>113945976</v>
-      </c>
-      <c r="U2">
-        <v>113944480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>989</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>994</v>
-      </c>
-      <c r="D3" t="s">
-        <v>995</v>
-      </c>
-      <c r="E3">
-        <v>936860</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>59209</v>
-      </c>
-      <c r="I3" t="s">
-        <v>996</v>
-      </c>
-      <c r="J3">
-        <v>441</v>
-      </c>
-      <c r="L3" t="s">
-        <v>993</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>994</v>
-      </c>
-      <c r="O3" t="s">
-        <v>995</v>
-      </c>
-      <c r="P3">
-        <v>9173</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>997</v>
-      </c>
-      <c r="R3" t="s">
-        <v>121</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>28</v>
-      </c>
-      <c r="U3">
-        <v>5</v>
-      </c>
-      <c r="V3" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>989</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>999</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E4">
-        <v>936860</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>59209</v>
-      </c>
-      <c r="I4" t="s">
-        <v>996</v>
-      </c>
-      <c r="J4">
-        <v>441</v>
-      </c>
-      <c r="L4" t="s">
-        <v>993</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>999</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="P4">
-        <v>9173</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>997</v>
-      </c>
-      <c r="R4" t="s">
-        <v>121</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>28</v>
-      </c>
-      <c r="U4">
-        <v>5</v>
-      </c>
-      <c r="V4" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>989</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E5">
-        <v>936860</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>59209</v>
-      </c>
-      <c r="I5" t="s">
-        <v>996</v>
-      </c>
-      <c r="J5">
-        <v>441</v>
-      </c>
-      <c r="L5" t="s">
-        <v>993</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P5">
-        <v>9173</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>997</v>
-      </c>
-      <c r="R5" t="s">
-        <v>121</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>28</v>
-      </c>
-      <c r="U5">
-        <v>5</v>
-      </c>
-      <c r="V5" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>989</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E6">
-        <v>936860</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>59209</v>
-      </c>
-      <c r="I6" t="s">
-        <v>996</v>
-      </c>
-      <c r="J6">
-        <v>441</v>
-      </c>
-      <c r="L6" t="s">
-        <v>993</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="P6">
-        <v>9173</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>997</v>
-      </c>
-      <c r="R6" t="s">
-        <v>121</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>28</v>
-      </c>
-      <c r="U6">
-        <v>5</v>
-      </c>
-      <c r="V6" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>989</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E7">
-        <v>936860</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>59209</v>
-      </c>
-      <c r="I7" t="s">
-        <v>996</v>
-      </c>
-      <c r="J7">
-        <v>441</v>
-      </c>
-      <c r="L7" t="s">
-        <v>993</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1005</v>
-      </c>
-      <c r="O7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="P7">
-        <v>9173</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>997</v>
-      </c>
-      <c r="R7" t="s">
-        <v>121</v>
-      </c>
-      <c r="S7">
-        <v>4</v>
-      </c>
-      <c r="T7">
-        <v>28</v>
-      </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
-      <c r="V7" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>989</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E8">
-        <v>936860</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>59209</v>
-      </c>
-      <c r="I8" t="s">
-        <v>996</v>
-      </c>
-      <c r="J8">
-        <v>441</v>
-      </c>
-      <c r="L8" t="s">
-        <v>993</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1007</v>
-      </c>
-      <c r="O8" t="s">
-        <v>1008</v>
-      </c>
-      <c r="P8">
-        <v>9173</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>997</v>
-      </c>
-      <c r="R8" t="s">
-        <v>121</v>
-      </c>
-      <c r="S8">
-        <v>5</v>
-      </c>
-      <c r="T8">
-        <v>28</v>
-      </c>
-      <c r="U8">
-        <v>5</v>
-      </c>
-      <c r="V8" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>989</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E9">
-        <v>5175402</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>59440</v>
-      </c>
-      <c r="I9" t="s">
-        <v>992</v>
-      </c>
-      <c r="J9">
-        <v>619</v>
-      </c>
-      <c r="L9" t="s">
-        <v>993</v>
-      </c>
-      <c r="M9">
-        <v>1000</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1009</v>
-      </c>
-      <c r="O9" t="s">
-        <v>1010</v>
-      </c>
-      <c r="P9">
-        <v>85331</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>121</v>
-      </c>
-      <c r="R9" t="s">
-        <v>666</v>
-      </c>
-      <c r="S9">
-        <v>68</v>
-      </c>
-      <c r="T9">
-        <v>114417488</v>
-      </c>
-      <c r="U9">
-        <v>114415448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>989</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E10">
-        <v>5060101</v>
-      </c>
-      <c r="F10">
-        <v>47</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>28903</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J10">
-        <v>351</v>
-      </c>
-      <c r="L10" t="s">
-        <v>993</v>
-      </c>
-      <c r="M10">
-        <v>2000</v>
-      </c>
-      <c r="N10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1012</v>
-      </c>
-      <c r="P10">
-        <v>84971</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>121</v>
-      </c>
-      <c r="R10" t="s">
-        <v>1014</v>
-      </c>
-      <c r="S10">
-        <v>69</v>
-      </c>
-      <c r="T10">
-        <v>114530992</v>
-      </c>
-      <c r="U10">
-        <v>114534120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>989</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E11">
-        <v>947303</v>
-      </c>
-      <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>12</v>
-      </c>
-      <c r="H11">
-        <v>59595</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J11">
-        <v>668</v>
-      </c>
-      <c r="L11" t="s">
-        <v>978</v>
-      </c>
-      <c r="M11">
-        <v>5000</v>
-      </c>
-      <c r="N11" t="s">
-        <v>1015</v>
-      </c>
-      <c r="O11" t="s">
-        <v>1016</v>
-      </c>
-      <c r="P11">
-        <v>9148</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R11" t="s">
-        <v>1014</v>
-      </c>
-      <c r="S11">
-        <v>72</v>
-      </c>
-      <c r="T11">
-        <v>114054664</v>
-      </c>
-      <c r="U11">
-        <v>114054256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>989</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E12">
-        <v>5726207</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>57721</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J12">
-        <v>351</v>
-      </c>
-      <c r="L12" t="s">
-        <v>993</v>
-      </c>
-      <c r="M12">
-        <v>4000</v>
-      </c>
-      <c r="N12" t="s">
-        <v>1015</v>
-      </c>
-      <c r="O12" t="s">
-        <v>1015</v>
-      </c>
-      <c r="P12">
-        <v>84971</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>121</v>
-      </c>
-      <c r="R12" t="s">
-        <v>1014</v>
-      </c>
-      <c r="S12">
-        <v>71</v>
-      </c>
-      <c r="T12">
-        <v>122184456</v>
-      </c>
-      <c r="U12">
-        <v>122185000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>989</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E13">
-        <v>5726208</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>26827</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J13">
-        <v>351</v>
-      </c>
-      <c r="L13" t="s">
-        <v>993</v>
-      </c>
-      <c r="M13">
-        <v>3000</v>
-      </c>
-      <c r="N13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="P13">
-        <v>84971</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>121</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="S13">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B14" s="5">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F14" s="5">
+        <v>20</v>
+      </c>
+      <c r="G14" s="5">
+        <v>11</v>
+      </c>
+      <c r="H14" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J14" s="5">
+        <v>714</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>45800.043761574074</v>
+      </c>
+      <c r="O14" s="6">
+        <v>45800.046539351853</v>
+      </c>
+      <c r="P14" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B15" s="5">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F15" s="5">
+        <v>20</v>
+      </c>
+      <c r="G15" s="5">
+        <v>11</v>
+      </c>
+      <c r="H15" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J15" s="5">
+        <v>714</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>45800.046550925923</v>
+      </c>
+      <c r="O15" s="6">
+        <v>45800.049328703702</v>
+      </c>
+      <c r="P15" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B16" s="5">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F16" s="5">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J16" s="5">
+        <v>714</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>45800.049340277779</v>
+      </c>
+      <c r="O16" s="6">
+        <v>45800.052118055559</v>
+      </c>
+      <c r="P16" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B17" s="5">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F17" s="5">
+        <v>20</v>
+      </c>
+      <c r="G17" s="5">
+        <v>11</v>
+      </c>
+      <c r="H17" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J17" s="5">
+        <v>714</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>45800.052129629628</v>
+      </c>
+      <c r="O17" s="6">
+        <v>45800.054907407408</v>
+      </c>
+      <c r="P17" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B18" s="5">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E18" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F18" s="5">
+        <v>20</v>
+      </c>
+      <c r="G18" s="5">
+        <v>11</v>
+      </c>
+      <c r="H18" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J18" s="5">
+        <v>714</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>45800.054918981485</v>
+      </c>
+      <c r="O18" s="6">
+        <v>45800.057696759257</v>
+      </c>
+      <c r="P18" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B19" s="5">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F19" s="5">
+        <v>20</v>
+      </c>
+      <c r="G19" s="5">
+        <v>11</v>
+      </c>
+      <c r="H19" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J19" s="5">
+        <v>714</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>45800.057708333334</v>
+      </c>
+      <c r="O19" s="6">
+        <v>45800.060486111113</v>
+      </c>
+      <c r="P19" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B20" s="5">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E20" s="5">
+        <v>947303</v>
+      </c>
+      <c r="F20" s="5">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5">
+        <v>6</v>
+      </c>
+      <c r="H20" s="5">
+        <v>59595</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J20" s="5">
+        <v>668</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="M20" s="5">
+        <v>5000</v>
+      </c>
+      <c r="N20" s="6">
+        <v>45800.059293981481</v>
+      </c>
+      <c r="O20" s="6">
+        <v>45800.070208333331</v>
+      </c>
+      <c r="P20" s="5">
+        <v>9148</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E21" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F21" s="5">
+        <v>20</v>
+      </c>
+      <c r="G21" s="5">
+        <v>11</v>
+      </c>
+      <c r="H21" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J21" s="5">
+        <v>714</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>45800.060497685183</v>
+      </c>
+      <c r="O21" s="6">
+        <v>45800.063275462962</v>
+      </c>
+      <c r="P21" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B22" s="5">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F22" s="5">
+        <v>20</v>
+      </c>
+      <c r="G22" s="5">
+        <v>11</v>
+      </c>
+      <c r="H22" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J22" s="5">
+        <v>714</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>45800.063287037039</v>
+      </c>
+      <c r="O22" s="6">
+        <v>45800.066064814811</v>
+      </c>
+      <c r="P22" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B23" s="5">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E23" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F23" s="5">
+        <v>20</v>
+      </c>
+      <c r="G23" s="5">
+        <v>11</v>
+      </c>
+      <c r="H23" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J23" s="5">
+        <v>714</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>45800.066076388888</v>
+      </c>
+      <c r="O23" s="6">
+        <v>45800.068854166668</v>
+      </c>
+      <c r="P23" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B24" s="5">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E24" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F24" s="5">
+        <v>20</v>
+      </c>
+      <c r="G24" s="5">
+        <v>11</v>
+      </c>
+      <c r="H24" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J24" s="5">
+        <v>714</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>45800.068865740737</v>
+      </c>
+      <c r="O24" s="6">
+        <v>45800.071643518517</v>
+      </c>
+      <c r="P24" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B25" s="5">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5060101</v>
+      </c>
+      <c r="F25" s="5">
+        <v>11</v>
+      </c>
+      <c r="G25" s="5">
+        <v>8</v>
+      </c>
+      <c r="H25" s="5">
+        <v>59736</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J25" s="5">
+        <v>351</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M25" s="5">
+        <v>6000</v>
+      </c>
+      <c r="N25" s="6">
+        <v>45800.070208333331</v>
+      </c>
+      <c r="O25" s="6">
+        <v>45800.102349537039</v>
+      </c>
+      <c r="P25" s="5">
+        <v>84971</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B26" s="5">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E26" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F26" s="5">
+        <v>20</v>
+      </c>
+      <c r="G26" s="5">
+        <v>11</v>
+      </c>
+      <c r="H26" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J26" s="5">
+        <v>714</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>45800.071655092594</v>
+      </c>
+      <c r="O26" s="6">
+        <v>45800.074432870373</v>
+      </c>
+      <c r="P26" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B27" s="5">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E27" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F27" s="5">
+        <v>20</v>
+      </c>
+      <c r="G27" s="5">
+        <v>11</v>
+      </c>
+      <c r="H27" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J27" s="5">
+        <v>714</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>45800.074444444443</v>
+      </c>
+      <c r="O27" s="6">
+        <v>45800.077222222222</v>
+      </c>
+      <c r="P27" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B28" s="5">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E28" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F28" s="5">
+        <v>20</v>
+      </c>
+      <c r="G28" s="5">
+        <v>11</v>
+      </c>
+      <c r="H28" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J28" s="5">
+        <v>714</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>45800.077233796299</v>
+      </c>
+      <c r="O28" s="6">
+        <v>45800.080011574071</v>
+      </c>
+      <c r="P28" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B29" s="5">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E29" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F29" s="5">
+        <v>20</v>
+      </c>
+      <c r="G29" s="5">
+        <v>8</v>
+      </c>
+      <c r="H29" s="5">
+        <v>59760</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J29" s="5">
+        <v>714</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>45800.080023148148</v>
+      </c>
+      <c r="O29" s="6">
+        <v>45800.082800925928</v>
+      </c>
+      <c r="P29" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B30" s="5">
+        <v>29</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E30" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F30" s="5">
+        <v>20</v>
+      </c>
+      <c r="G30" s="5">
+        <v>10</v>
+      </c>
+      <c r="H30" s="5">
+        <v>59761</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J30" s="5">
+        <v>714</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>45800.085416666669</v>
+      </c>
+      <c r="O30" s="6">
+        <v>45800.087939814817</v>
+      </c>
+      <c r="P30" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B31" s="5">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E31" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F31" s="5">
+        <v>20</v>
+      </c>
+      <c r="G31" s="5">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5">
+        <v>59761</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J31" s="5">
+        <v>714</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>45800.087951388887</v>
+      </c>
+      <c r="O31" s="6">
+        <v>45800.090474537035</v>
+      </c>
+      <c r="P31" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B32" s="5">
+        <v>31</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E32" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F32" s="5">
+        <v>20</v>
+      </c>
+      <c r="G32" s="5">
+        <v>10</v>
+      </c>
+      <c r="H32" s="5">
+        <v>59761</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J32" s="5">
+        <v>714</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>45800.090486111112</v>
+      </c>
+      <c r="O32" s="6">
+        <v>45800.093009259261</v>
+      </c>
+      <c r="P32" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B33" s="5">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E33" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F33" s="5">
+        <v>20</v>
+      </c>
+      <c r="G33" s="5">
+        <v>10</v>
+      </c>
+      <c r="H33" s="5">
+        <v>59761</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J33" s="5">
+        <v>714</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>45800.09302083333</v>
+      </c>
+      <c r="O33" s="6">
+        <v>45800.095543981479</v>
+      </c>
+      <c r="P33" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B34" s="5">
+        <v>33</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E34" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F34" s="5">
+        <v>20</v>
+      </c>
+      <c r="G34" s="5">
+        <v>10</v>
+      </c>
+      <c r="H34" s="5">
+        <v>59761</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J34" s="5">
+        <v>714</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>45800.095555555556</v>
+      </c>
+      <c r="O34" s="6">
+        <v>45800.098078703704</v>
+      </c>
+      <c r="P34" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B35" s="5">
+        <v>34</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E35" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F35" s="5">
+        <v>20</v>
+      </c>
+      <c r="G35" s="5">
+        <v>10</v>
+      </c>
+      <c r="H35" s="5">
+        <v>59761</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J35" s="5">
+        <v>714</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>45800.098090277781</v>
+      </c>
+      <c r="O35" s="6">
+        <v>45800.100613425922</v>
+      </c>
+      <c r="P35" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B36" s="5">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E36" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F36" s="5">
+        <v>20</v>
+      </c>
+      <c r="G36" s="5">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5">
+        <v>59761</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J36" s="5">
+        <v>714</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>45800.100624999999</v>
+      </c>
+      <c r="O36" s="6">
+        <v>45800.103148148148</v>
+      </c>
+      <c r="P36" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B37" s="5">
+        <v>36</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E37" s="5">
+        <v>5060101</v>
+      </c>
+      <c r="F37" s="5">
+        <v>11</v>
+      </c>
+      <c r="G37" s="5">
+        <v>8</v>
+      </c>
+      <c r="H37" s="5">
+        <v>59736</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J37" s="5">
+        <v>351</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M37" s="5">
+        <v>6000</v>
+      </c>
+      <c r="N37" s="6">
+        <v>45800.102361111109</v>
+      </c>
+      <c r="O37" s="6">
+        <v>45800.134502314817</v>
+      </c>
+      <c r="P37" s="5">
+        <v>84971</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B38" s="5">
+        <v>37</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E38" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="F38" s="5">
+        <v>20</v>
+      </c>
+      <c r="G38" s="5">
+        <v>10</v>
+      </c>
+      <c r="H38" s="5">
+        <v>59761</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J38" s="5">
+        <v>714</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>45800.103159722225</v>
+      </c>
+      <c r="O38" s="6">
+        <v>45800.105682870373</v>
+      </c>
+      <c r="P38" s="5">
+        <v>85426</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B39" s="5">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E39" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F39" s="5">
+        <v>20</v>
+      </c>
+      <c r="G39" s="5">
+        <v>12</v>
+      </c>
+      <c r="H39" s="5">
+        <v>59127</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J39" s="5">
+        <v>351</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <v>45800.113194444442</v>
+      </c>
+      <c r="O39" s="6">
+        <v>45800.118958333333</v>
+      </c>
+      <c r="P39" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B40" s="5">
+        <v>39</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E40" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F40" s="5">
+        <v>20</v>
+      </c>
+      <c r="G40" s="5">
+        <v>12</v>
+      </c>
+      <c r="H40" s="5">
+        <v>59127</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J40" s="5">
+        <v>351</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
+        <v>45800.118969907409</v>
+      </c>
+      <c r="O40" s="6">
+        <v>45800.1247337963</v>
+      </c>
+      <c r="P40" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B41" s="5">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E41" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F41" s="5">
+        <v>20</v>
+      </c>
+      <c r="G41" s="5">
+        <v>12</v>
+      </c>
+      <c r="H41" s="5">
+        <v>59127</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J41" s="5">
+        <v>351</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6">
+        <v>45800.124745370369</v>
+      </c>
+      <c r="O41" s="6">
+        <v>45800.130509259259</v>
+      </c>
+      <c r="P41" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B42" s="5">
+        <v>41</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E42" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F42" s="5">
+        <v>20</v>
+      </c>
+      <c r="G42" s="5">
+        <v>12</v>
+      </c>
+      <c r="H42" s="5">
+        <v>59127</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J42" s="5">
+        <v>351</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <v>45800.130520833336</v>
+      </c>
+      <c r="O42" s="6">
+        <v>45800.136284722219</v>
+      </c>
+      <c r="P42" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B43" s="5">
+        <v>42</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E43" s="5">
+        <v>5060101</v>
+      </c>
+      <c r="F43" s="5">
+        <v>11</v>
+      </c>
+      <c r="G43" s="5">
+        <v>2</v>
+      </c>
+      <c r="H43" s="5">
+        <v>59736</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J43" s="5">
+        <v>351</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M43" s="5">
+        <v>6000</v>
+      </c>
+      <c r="N43" s="6">
+        <v>45800.134513888886</v>
+      </c>
+      <c r="O43" s="6">
+        <v>45800.142523148148</v>
+      </c>
+      <c r="P43" s="5">
+        <v>84971</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B44" s="5">
+        <v>43</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E44" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F44" s="5">
+        <v>20</v>
+      </c>
+      <c r="G44" s="5">
+        <v>4</v>
+      </c>
+      <c r="H44" s="5">
+        <v>59692</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J44" s="5">
+        <v>351</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
+        <v>45800.136284722219</v>
+      </c>
+      <c r="O44" s="6">
+        <v>45800.138206018521</v>
+      </c>
+      <c r="P44" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B45" s="5">
+        <v>44</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E45" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F45" s="5">
+        <v>20</v>
+      </c>
+      <c r="G45" s="5">
+        <v>4</v>
+      </c>
+      <c r="H45" s="5">
+        <v>59692</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J45" s="5">
+        <v>351</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>45800.13821759259</v>
+      </c>
+      <c r="O45" s="6">
+        <v>45800.140138888892</v>
+      </c>
+      <c r="P45" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B46" s="5">
+        <v>45</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E46" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F46" s="5">
+        <v>20</v>
+      </c>
+      <c r="G46" s="5">
+        <v>4</v>
+      </c>
+      <c r="H46" s="5">
+        <v>59692</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J46" s="5">
+        <v>351</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>45800.140150462961</v>
+      </c>
+      <c r="O46" s="6">
+        <v>45800.142071759263</v>
+      </c>
+      <c r="P46" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B47" s="5">
+        <v>46</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E47" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F47" s="5">
+        <v>20</v>
+      </c>
+      <c r="G47" s="5">
+        <v>4</v>
+      </c>
+      <c r="H47" s="5">
+        <v>59692</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J47" s="5">
+        <v>351</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6">
+        <v>45800.142083333332</v>
+      </c>
+      <c r="O47" s="6">
+        <v>45800.144004629627</v>
+      </c>
+      <c r="P47" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B48" s="5">
+        <v>47</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E48" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F48" s="5">
+        <v>20</v>
+      </c>
+      <c r="G48" s="5">
+        <v>4</v>
+      </c>
+      <c r="H48" s="5">
+        <v>59692</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J48" s="5">
+        <v>351</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6">
+        <v>45800.144016203703</v>
+      </c>
+      <c r="O48" s="6">
+        <v>45800.145937499998</v>
+      </c>
+      <c r="P48" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B49" s="5">
+        <v>48</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E49" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F49" s="5">
+        <v>20</v>
+      </c>
+      <c r="G49" s="5">
+        <v>4</v>
+      </c>
+      <c r="H49" s="5">
+        <v>59692</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J49" s="5">
+        <v>351</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
+        <v>45800.145949074074</v>
+      </c>
+      <c r="O49" s="6">
+        <v>45800.147870370369</v>
+      </c>
+      <c r="P49" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B50" s="5">
+        <v>49</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E50" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F50" s="5">
+        <v>20</v>
+      </c>
+      <c r="G50" s="5">
+        <v>4</v>
+      </c>
+      <c r="H50" s="5">
+        <v>59692</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J50" s="5">
+        <v>351</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>45800.147881944446</v>
+      </c>
+      <c r="O50" s="6">
+        <v>45800.14980324074</v>
+      </c>
+      <c r="P50" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B51" s="5">
+        <v>50</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E51" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F51" s="5">
+        <v>20</v>
+      </c>
+      <c r="G51" s="5">
+        <v>4</v>
+      </c>
+      <c r="H51" s="5">
+        <v>59692</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J51" s="5">
+        <v>351</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <v>45800.149814814817</v>
+      </c>
+      <c r="O51" s="6">
+        <v>45800.151736111111</v>
+      </c>
+      <c r="P51" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B52" s="5">
+        <v>51</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E52" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F52" s="5">
+        <v>20</v>
+      </c>
+      <c r="G52" s="5">
+        <v>4</v>
+      </c>
+      <c r="H52" s="5">
+        <v>59692</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J52" s="5">
+        <v>351</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>45800.151747685188</v>
+      </c>
+      <c r="O52" s="6">
+        <v>45800.153668981482</v>
+      </c>
+      <c r="P52" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B53" s="5">
+        <v>52</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E53" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F53" s="5">
+        <v>20</v>
+      </c>
+      <c r="G53" s="5">
+        <v>12</v>
+      </c>
+      <c r="H53" s="5">
+        <v>59693</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J53" s="5">
+        <v>351</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6">
+        <v>45800.183182870373</v>
+      </c>
+      <c r="O53" s="6">
+        <v>45800.188946759263</v>
+      </c>
+      <c r="P53" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B54" s="5">
+        <v>53</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E54" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F54" s="5">
+        <v>20</v>
+      </c>
+      <c r="G54" s="5">
+        <v>12</v>
+      </c>
+      <c r="H54" s="5">
+        <v>59693</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J54" s="5">
+        <v>351</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6">
+        <v>45800.188958333332</v>
+      </c>
+      <c r="O54" s="6">
+        <v>45800.194722222222</v>
+      </c>
+      <c r="P54" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B55" s="5">
+        <v>54</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E55" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F55" s="5">
+        <v>20</v>
+      </c>
+      <c r="G55" s="5">
+        <v>12</v>
+      </c>
+      <c r="H55" s="5">
+        <v>59693</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J55" s="5">
+        <v>351</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6">
+        <v>45800.194733796299</v>
+      </c>
+      <c r="O55" s="6">
+        <v>45800.200497685182</v>
+      </c>
+      <c r="P55" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B56" s="5">
+        <v>55</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E56" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F56" s="5">
+        <v>20</v>
+      </c>
+      <c r="G56" s="5">
+        <v>12</v>
+      </c>
+      <c r="H56" s="5">
+        <v>59693</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J56" s="5">
+        <v>351</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
+        <v>45800.200509259259</v>
+      </c>
+      <c r="O56" s="6">
+        <v>45800.206273148149</v>
+      </c>
+      <c r="P56" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B57" s="5">
+        <v>56</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E57" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F57" s="5">
+        <v>20</v>
+      </c>
+      <c r="G57" s="5">
+        <v>7</v>
+      </c>
+      <c r="H57" s="5">
+        <v>59693</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J57" s="5">
+        <v>351</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M57" s="5">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6">
+        <v>45800.206284722219</v>
+      </c>
+      <c r="O57" s="6">
+        <v>45800.212048611109</v>
+      </c>
+      <c r="P57" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B58" s="5">
+        <v>57</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E58" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F58" s="5">
+        <v>20</v>
+      </c>
+      <c r="G58" s="5">
+        <v>12</v>
+      </c>
+      <c r="H58" s="5">
+        <v>59694</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J58" s="5">
+        <v>351</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0</v>
+      </c>
+      <c r="N58" s="6">
+        <v>45800.222916666666</v>
+      </c>
+      <c r="O58" s="6">
+        <v>45800.228680555556</v>
+      </c>
+      <c r="P58" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B59" s="5">
+        <v>58</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E59" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F59" s="5">
+        <v>20</v>
+      </c>
+      <c r="G59" s="5">
+        <v>12</v>
+      </c>
+      <c r="H59" s="5">
+        <v>59694</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J59" s="5">
+        <v>351</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+      <c r="N59" s="6">
+        <v>45800.228692129633</v>
+      </c>
+      <c r="O59" s="6">
+        <v>45800.234456018516</v>
+      </c>
+      <c r="P59" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B60" s="5">
+        <v>59</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E60" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F60" s="5">
+        <v>20</v>
+      </c>
+      <c r="G60" s="5">
+        <v>12</v>
+      </c>
+      <c r="H60" s="5">
+        <v>59694</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J60" s="5">
+        <v>351</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
+      </c>
+      <c r="N60" s="6">
+        <v>45800.234467592592</v>
+      </c>
+      <c r="O60" s="6">
+        <v>45800.240231481483</v>
+      </c>
+      <c r="P60" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B61" s="5">
+        <v>60</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E61" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F61" s="5">
+        <v>20</v>
+      </c>
+      <c r="G61" s="5">
+        <v>12</v>
+      </c>
+      <c r="H61" s="5">
+        <v>59694</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J61" s="5">
+        <v>351</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0</v>
+      </c>
+      <c r="N61" s="6">
+        <v>45800.240243055552</v>
+      </c>
+      <c r="O61" s="6">
+        <v>45800.246006944442</v>
+      </c>
+      <c r="P61" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B62" s="5">
+        <v>61</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E62" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F62" s="5">
+        <v>20</v>
+      </c>
+      <c r="G62" s="5">
+        <v>12</v>
+      </c>
+      <c r="H62" s="5">
+        <v>59694</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J62" s="5">
+        <v>351</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6">
+        <v>45800.246018518519</v>
+      </c>
+      <c r="O62" s="6">
+        <v>45800.251782407409</v>
+      </c>
+      <c r="P62" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B63" s="5">
+        <v>62</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E63" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F63" s="5">
+        <v>20</v>
+      </c>
+      <c r="G63" s="5">
+        <v>12</v>
+      </c>
+      <c r="H63" s="5">
+        <v>59694</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J63" s="5">
+        <v>351</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0</v>
+      </c>
+      <c r="N63" s="6">
+        <v>45800.251793981479</v>
+      </c>
+      <c r="O63" s="6">
+        <v>45800.257557870369</v>
+      </c>
+      <c r="P63" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B64" s="5">
+        <v>63</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E64" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F64" s="5">
+        <v>20</v>
+      </c>
+      <c r="G64" s="5">
+        <v>12</v>
+      </c>
+      <c r="H64" s="5">
+        <v>59695</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J64" s="5">
+        <v>351</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0</v>
+      </c>
+      <c r="N64" s="6">
+        <v>45800.275000000001</v>
+      </c>
+      <c r="O64" s="6">
+        <v>45800.280763888892</v>
+      </c>
+      <c r="P64" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B65" s="5">
+        <v>64</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E65" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F65" s="5">
+        <v>20</v>
+      </c>
+      <c r="G65" s="5">
+        <v>12</v>
+      </c>
+      <c r="H65" s="5">
+        <v>59695</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J65" s="5">
+        <v>351</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M65" s="5">
+        <v>0</v>
+      </c>
+      <c r="N65" s="6">
+        <v>45800.280775462961</v>
+      </c>
+      <c r="O65" s="6">
+        <v>45800.286539351851</v>
+      </c>
+      <c r="P65" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B66" s="5">
+        <v>65</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E66" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F66" s="5">
+        <v>20</v>
+      </c>
+      <c r="G66" s="5">
+        <v>12</v>
+      </c>
+      <c r="H66" s="5">
+        <v>59695</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J66" s="5">
+        <v>351</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0</v>
+      </c>
+      <c r="N66" s="6">
+        <v>45800.286550925928</v>
+      </c>
+      <c r="O66" s="6">
+        <v>45800.292314814818</v>
+      </c>
+      <c r="P66" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B67" s="5">
+        <v>66</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E67" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F67" s="5">
+        <v>20</v>
+      </c>
+      <c r="G67" s="5">
+        <v>12</v>
+      </c>
+      <c r="H67" s="5">
+        <v>59695</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J67" s="5">
+        <v>351</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+      <c r="N67" s="6">
+        <v>45800.292326388888</v>
+      </c>
+      <c r="O67" s="6">
+        <v>45800.298090277778</v>
+      </c>
+      <c r="P67" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B68" s="5">
+        <v>67</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E68" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F68" s="5">
+        <v>20</v>
+      </c>
+      <c r="G68" s="5">
+        <v>12</v>
+      </c>
+      <c r="H68" s="5">
+        <v>59695</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J68" s="5">
+        <v>351</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M68" s="5">
+        <v>0</v>
+      </c>
+      <c r="N68" s="6">
+        <v>45800.298101851855</v>
+      </c>
+      <c r="O68" s="6">
+        <v>45800.303865740738</v>
+      </c>
+      <c r="P68" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B69" s="5">
+        <v>68</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E69" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F69" s="5">
+        <v>20</v>
+      </c>
+      <c r="G69" s="5">
+        <v>12</v>
+      </c>
+      <c r="H69" s="5">
+        <v>59695</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J69" s="5">
+        <v>351</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0</v>
+      </c>
+      <c r="N69" s="6">
+        <v>45800.303877314815</v>
+      </c>
+      <c r="O69" s="6">
+        <v>45800.309641203705</v>
+      </c>
+      <c r="P69" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B70" s="5">
+        <v>69</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E70" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F70" s="5">
+        <v>20</v>
+      </c>
+      <c r="G70" s="5">
+        <v>8</v>
+      </c>
+      <c r="H70" s="5">
+        <v>59695</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J70" s="5">
+        <v>351</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M70" s="5">
+        <v>0</v>
+      </c>
+      <c r="N70" s="6">
+        <v>45800.309652777774</v>
+      </c>
+      <c r="O70" s="6">
+        <v>45800.315416666665</v>
+      </c>
+      <c r="P70" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B71" s="5">
         <v>70</v>
       </c>
-      <c r="T13">
-        <v>122197240</v>
-      </c>
-      <c r="U13">
-        <v>122199416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C71" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E71" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F71" s="5">
+        <v>20</v>
+      </c>
+      <c r="G71" s="5">
+        <v>12</v>
+      </c>
+      <c r="H71" s="5">
+        <v>59696</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J71" s="5">
+        <v>351</v>
+      </c>
+      <c r="L71" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="B14">
+      <c r="M71" s="5">
+        <v>0</v>
+      </c>
+      <c r="N71" s="6">
+        <v>45800.327777777777</v>
+      </c>
+      <c r="O71" s="6">
+        <v>45800.333541666667</v>
+      </c>
+      <c r="P71" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B72" s="5">
+        <v>71</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E72" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F72" s="5">
+        <v>20</v>
+      </c>
+      <c r="G72" s="5">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E14">
-        <v>8076701</v>
-      </c>
-      <c r="F14">
+      <c r="H72" s="5">
+        <v>59696</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J72" s="5">
+        <v>351</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M72" s="5">
+        <v>0</v>
+      </c>
+      <c r="N72" s="6">
+        <v>45800.333553240744</v>
+      </c>
+      <c r="O72" s="6">
+        <v>45800.339317129627</v>
+      </c>
+      <c r="P72" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B73" s="5">
+        <v>72</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E73" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F73" s="5">
         <v>20</v>
       </c>
-      <c r="G14">
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <v>59760</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J14">
-        <v>714</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="G73" s="5">
+        <v>12</v>
+      </c>
+      <c r="H73" s="5">
+        <v>59696</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J73" s="5">
+        <v>351</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M73" s="5">
+        <v>0</v>
+      </c>
+      <c r="N73" s="6">
+        <v>45800.339328703703</v>
+      </c>
+      <c r="O73" s="6">
+        <v>45800.345092592594</v>
+      </c>
+      <c r="P73" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q73" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1018</v>
-      </c>
-      <c r="O14" t="s">
-        <v>1019</v>
-      </c>
-      <c r="P14">
-        <v>85426</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>997</v>
-      </c>
-      <c r="R14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S14">
-        <v>6</v>
-      </c>
-      <c r="T14">
-        <v>162</v>
-      </c>
-      <c r="U14">
-        <v>11</v>
-      </c>
-      <c r="V14" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="R73" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B74" s="5">
+        <v>73</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E74" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F74" s="5">
+        <v>20</v>
+      </c>
+      <c r="G74" s="5">
+        <v>12</v>
+      </c>
+      <c r="H74" s="5">
+        <v>59696</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J74" s="5">
+        <v>351</v>
+      </c>
+      <c r="L74" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E15">
-        <v>8076701</v>
-      </c>
-      <c r="F15">
+      <c r="M74" s="5">
+        <v>0</v>
+      </c>
+      <c r="N74" s="6">
+        <v>45800.345104166663</v>
+      </c>
+      <c r="O74" s="6">
+        <v>45800.350868055553</v>
+      </c>
+      <c r="P74" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B75" s="5">
+        <v>74</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E75" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F75" s="5">
         <v>20</v>
       </c>
-      <c r="G15">
-        <v>11</v>
-      </c>
-      <c r="H15">
-        <v>59760</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J15">
-        <v>714</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="G75" s="5">
+        <v>12</v>
+      </c>
+      <c r="H75" s="5">
+        <v>59696</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J75" s="5">
+        <v>351</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M75" s="5">
+        <v>0</v>
+      </c>
+      <c r="N75" s="6">
+        <v>45800.35087962963</v>
+      </c>
+      <c r="O75" s="6">
+        <v>45800.35664351852</v>
+      </c>
+      <c r="P75" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q75" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>1023</v>
-      </c>
-      <c r="O15" t="s">
-        <v>1024</v>
-      </c>
-      <c r="P15">
-        <v>85426</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>997</v>
-      </c>
-      <c r="R15" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S15">
-        <v>7</v>
-      </c>
-      <c r="T15">
-        <v>162</v>
-      </c>
-      <c r="U15">
-        <v>11</v>
-      </c>
-      <c r="V15" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="R75" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B76" s="5">
+        <v>75</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E76" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F76" s="5">
+        <v>20</v>
+      </c>
+      <c r="G76" s="5">
+        <v>4</v>
+      </c>
+      <c r="H76" s="5">
+        <v>59696</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J76" s="5">
+        <v>351</v>
+      </c>
+      <c r="L76" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E16">
-        <v>8076701</v>
-      </c>
-      <c r="F16">
+      <c r="M76" s="5">
+        <v>0</v>
+      </c>
+      <c r="N76" s="6">
+        <v>45800.35665509259</v>
+      </c>
+      <c r="O76" s="6">
+        <v>45800.358541666668</v>
+      </c>
+      <c r="P76" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B77" s="5">
+        <v>76</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E77" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="F77" s="5">
         <v>20</v>
       </c>
-      <c r="G16">
-        <v>11</v>
-      </c>
-      <c r="H16">
-        <v>59760</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J16">
-        <v>714</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="G77" s="5">
+        <v>9</v>
+      </c>
+      <c r="H77" s="5">
+        <v>59130</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J77" s="5">
+        <v>351</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="M77" s="5">
+        <v>0</v>
+      </c>
+      <c r="N77" s="6">
+        <v>45800.358541666668</v>
+      </c>
+      <c r="O77" s="6">
+        <v>45800.362858796296</v>
+      </c>
+      <c r="P77" s="5">
+        <v>86217</v>
+      </c>
+      <c r="Q77" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>1025</v>
-      </c>
-      <c r="O16" t="s">
-        <v>1026</v>
-      </c>
-      <c r="P16">
-        <v>85426</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>997</v>
-      </c>
-      <c r="R16" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S16">
-        <v>8</v>
-      </c>
-      <c r="T16">
-        <v>162</v>
-      </c>
-      <c r="U16">
-        <v>11</v>
-      </c>
-      <c r="V16" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>989</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E17">
-        <v>8076701</v>
-      </c>
-      <c r="F17">
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <v>11</v>
-      </c>
-      <c r="H17">
-        <v>59760</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J17">
-        <v>714</v>
-      </c>
-      <c r="L17" t="s">
-        <v>993</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>1027</v>
-      </c>
-      <c r="O17" t="s">
-        <v>1028</v>
-      </c>
-      <c r="P17">
-        <v>85426</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>997</v>
-      </c>
-      <c r="R17" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S17">
-        <v>9</v>
-      </c>
-      <c r="T17">
-        <v>162</v>
-      </c>
-      <c r="U17">
-        <v>11</v>
-      </c>
-      <c r="V17" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>989</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E18">
-        <v>8076701</v>
-      </c>
-      <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="G18">
-        <v>11</v>
-      </c>
-      <c r="H18">
-        <v>59760</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J18">
-        <v>714</v>
-      </c>
-      <c r="L18" t="s">
-        <v>993</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>1029</v>
-      </c>
-      <c r="O18" t="s">
-        <v>1030</v>
-      </c>
-      <c r="P18">
-        <v>85426</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>997</v>
-      </c>
-      <c r="R18" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S18">
-        <v>10</v>
-      </c>
-      <c r="T18">
-        <v>162</v>
-      </c>
-      <c r="U18">
-        <v>11</v>
-      </c>
-      <c r="V18" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>989</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E19">
-        <v>8076701</v>
-      </c>
-      <c r="F19">
-        <v>20</v>
-      </c>
-      <c r="G19">
-        <v>11</v>
-      </c>
-      <c r="H19">
-        <v>59760</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J19">
-        <v>714</v>
-      </c>
-      <c r="L19" t="s">
-        <v>993</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>1031</v>
-      </c>
-      <c r="O19" t="s">
-        <v>1032</v>
-      </c>
-      <c r="P19">
-        <v>85426</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>997</v>
-      </c>
-      <c r="R19" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S19">
-        <v>11</v>
-      </c>
-      <c r="T19">
-        <v>162</v>
-      </c>
-      <c r="U19">
-        <v>11</v>
-      </c>
-      <c r="V19" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>989</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E20">
-        <v>8076701</v>
-      </c>
-      <c r="F20">
-        <v>20</v>
-      </c>
-      <c r="G20">
-        <v>11</v>
-      </c>
-      <c r="H20">
-        <v>59760</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J20">
-        <v>714</v>
-      </c>
-      <c r="L20" t="s">
-        <v>993</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>1033</v>
-      </c>
-      <c r="O20" t="s">
-        <v>1034</v>
-      </c>
-      <c r="P20">
-        <v>85426</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>997</v>
-      </c>
-      <c r="R20" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S20">
-        <v>12</v>
-      </c>
-      <c r="T20">
-        <v>162</v>
-      </c>
-      <c r="U20">
-        <v>11</v>
-      </c>
-      <c r="V20" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>989</v>
-      </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E21">
-        <v>947303</v>
-      </c>
-      <c r="F21">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>59595</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J21">
-        <v>668</v>
-      </c>
-      <c r="L21" t="s">
-        <v>978</v>
-      </c>
-      <c r="M21">
-        <v>5000</v>
-      </c>
-      <c r="N21" t="s">
-        <v>1035</v>
-      </c>
-      <c r="O21" t="s">
-        <v>1036</v>
-      </c>
-      <c r="P21">
-        <v>9148</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="R77" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="R21" t="s">
-        <v>1014</v>
-      </c>
-      <c r="S21">
-        <v>73</v>
-      </c>
-      <c r="T21">
-        <v>114674528</v>
-      </c>
-      <c r="U21">
-        <v>114673984</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>989</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E22">
-        <v>8076701</v>
-      </c>
-      <c r="F22">
-        <v>20</v>
-      </c>
-      <c r="G22">
-        <v>11</v>
-      </c>
-      <c r="H22">
-        <v>59760</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J22">
-        <v>714</v>
-      </c>
-      <c r="L22" t="s">
-        <v>993</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>1037</v>
-      </c>
-      <c r="O22" t="s">
-        <v>1038</v>
-      </c>
-      <c r="P22">
-        <v>85426</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>997</v>
-      </c>
-      <c r="R22" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S22">
-        <v>13</v>
-      </c>
-      <c r="T22">
-        <v>162</v>
-      </c>
-      <c r="U22">
-        <v>11</v>
-      </c>
-      <c r="V22" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>989</v>
-      </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E23">
-        <v>8076701</v>
-      </c>
-      <c r="F23">
-        <v>20</v>
-      </c>
-      <c r="G23">
-        <v>11</v>
-      </c>
-      <c r="H23">
-        <v>59760</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J23">
-        <v>714</v>
-      </c>
-      <c r="L23" t="s">
-        <v>993</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>1039</v>
-      </c>
-      <c r="O23" t="s">
-        <v>1040</v>
-      </c>
-      <c r="P23">
-        <v>85426</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>997</v>
-      </c>
-      <c r="R23" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S23">
-        <v>14</v>
-      </c>
-      <c r="T23">
-        <v>162</v>
-      </c>
-      <c r="U23">
-        <v>11</v>
-      </c>
-      <c r="V23" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>989</v>
-      </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E24">
-        <v>8076701</v>
-      </c>
-      <c r="F24">
-        <v>20</v>
-      </c>
-      <c r="G24">
-        <v>11</v>
-      </c>
-      <c r="H24">
-        <v>59760</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J24">
-        <v>714</v>
-      </c>
-      <c r="L24" t="s">
-        <v>993</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>1041</v>
-      </c>
-      <c r="O24" t="s">
-        <v>1042</v>
-      </c>
-      <c r="P24">
-        <v>85426</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>997</v>
-      </c>
-      <c r="R24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S24">
-        <v>15</v>
-      </c>
-      <c r="T24">
-        <v>162</v>
-      </c>
-      <c r="U24">
-        <v>11</v>
-      </c>
-      <c r="V24" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>989</v>
-      </c>
-      <c r="B25">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E25">
-        <v>8076701</v>
-      </c>
-      <c r="F25">
-        <v>20</v>
-      </c>
-      <c r="G25">
-        <v>11</v>
-      </c>
-      <c r="H25">
-        <v>59760</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J25">
-        <v>714</v>
-      </c>
-      <c r="L25" t="s">
-        <v>993</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>1043</v>
-      </c>
-      <c r="O25" t="s">
-        <v>1044</v>
-      </c>
-      <c r="P25">
-        <v>85426</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>997</v>
-      </c>
-      <c r="R25" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S25">
-        <v>16</v>
-      </c>
-      <c r="T25">
-        <v>162</v>
-      </c>
-      <c r="U25">
-        <v>11</v>
-      </c>
-      <c r="V25" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>989</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E26">
-        <v>5060101</v>
-      </c>
-      <c r="F26">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>8</v>
-      </c>
-      <c r="H26">
-        <v>59736</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J26">
-        <v>351</v>
-      </c>
-      <c r="L26" t="s">
-        <v>993</v>
-      </c>
-      <c r="M26">
-        <v>6000</v>
-      </c>
-      <c r="N26" t="s">
-        <v>1036</v>
-      </c>
-      <c r="O26" t="s">
-        <v>1045</v>
-      </c>
-      <c r="P26">
-        <v>84971</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>121</v>
-      </c>
-      <c r="R26" t="s">
-        <v>1014</v>
-      </c>
-      <c r="S26">
-        <v>74</v>
-      </c>
-      <c r="T26">
-        <v>122383400</v>
-      </c>
-      <c r="U26">
-        <v>122380544</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>989</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E27">
-        <v>8076701</v>
-      </c>
-      <c r="F27">
-        <v>20</v>
-      </c>
-      <c r="G27">
-        <v>11</v>
-      </c>
-      <c r="H27">
-        <v>59760</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J27">
-        <v>714</v>
-      </c>
-      <c r="L27" t="s">
-        <v>993</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O27" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P27">
-        <v>85426</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>997</v>
-      </c>
-      <c r="R27" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S27">
-        <v>17</v>
-      </c>
-      <c r="T27">
-        <v>162</v>
-      </c>
-      <c r="U27">
-        <v>11</v>
-      </c>
-      <c r="V27" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>989</v>
-      </c>
-      <c r="B28">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E28">
-        <v>8076701</v>
-      </c>
-      <c r="F28">
-        <v>20</v>
-      </c>
-      <c r="G28">
-        <v>11</v>
-      </c>
-      <c r="H28">
-        <v>59760</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J28">
-        <v>714</v>
-      </c>
-      <c r="L28" t="s">
-        <v>993</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
-        <v>1048</v>
-      </c>
-      <c r="O28" t="s">
-        <v>1049</v>
-      </c>
-      <c r="P28">
-        <v>85426</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>997</v>
-      </c>
-      <c r="R28" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S28">
-        <v>18</v>
-      </c>
-      <c r="T28">
-        <v>162</v>
-      </c>
-      <c r="U28">
-        <v>11</v>
-      </c>
-      <c r="V28" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>989</v>
-      </c>
-      <c r="B29">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E29">
-        <v>8076701</v>
-      </c>
-      <c r="F29">
-        <v>20</v>
-      </c>
-      <c r="G29">
-        <v>11</v>
-      </c>
-      <c r="H29">
-        <v>59760</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J29">
-        <v>714</v>
-      </c>
-      <c r="L29" t="s">
-        <v>993</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>1050</v>
-      </c>
-      <c r="O29" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P29">
-        <v>85426</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>997</v>
-      </c>
-      <c r="R29" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S29">
-        <v>19</v>
-      </c>
-      <c r="T29">
-        <v>162</v>
-      </c>
-      <c r="U29">
-        <v>11</v>
-      </c>
-      <c r="V29" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>989</v>
-      </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E30">
-        <v>8076701</v>
-      </c>
-      <c r="F30">
-        <v>20</v>
-      </c>
-      <c r="G30">
-        <v>8</v>
-      </c>
-      <c r="H30">
-        <v>59760</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J30">
-        <v>714</v>
-      </c>
-      <c r="L30" t="s">
-        <v>993</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
-        <v>1052</v>
-      </c>
-      <c r="O30" t="s">
-        <v>1053</v>
-      </c>
-      <c r="P30">
-        <v>85426</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>997</v>
-      </c>
-      <c r="R30" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S30">
-        <v>20</v>
-      </c>
-      <c r="T30">
-        <v>162</v>
-      </c>
-      <c r="U30">
-        <v>11</v>
-      </c>
-      <c r="V30" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>989</v>
-      </c>
-      <c r="B31">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E31">
-        <v>8076701</v>
-      </c>
-      <c r="F31">
-        <v>20</v>
-      </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
-      <c r="H31">
-        <v>59761</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J31">
-        <v>714</v>
-      </c>
-      <c r="L31" t="s">
-        <v>993</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
-        <v>1054</v>
-      </c>
-      <c r="O31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="P31">
-        <v>85426</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>997</v>
-      </c>
-      <c r="R31" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S31">
-        <v>21</v>
-      </c>
-      <c r="T31">
-        <v>80</v>
-      </c>
-      <c r="U31">
-        <v>10</v>
-      </c>
-      <c r="V31" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>989</v>
-      </c>
-      <c r="B32">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E32">
-        <v>8076701</v>
-      </c>
-      <c r="F32">
-        <v>20</v>
-      </c>
-      <c r="G32">
-        <v>10</v>
-      </c>
-      <c r="H32">
-        <v>59761</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J32">
-        <v>714</v>
-      </c>
-      <c r="L32" t="s">
-        <v>993</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
-        <v>1057</v>
-      </c>
-      <c r="O32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="P32">
-        <v>85426</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>997</v>
-      </c>
-      <c r="R32" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S32">
-        <v>22</v>
-      </c>
-      <c r="T32">
-        <v>80</v>
-      </c>
-      <c r="U32">
-        <v>10</v>
-      </c>
-      <c r="V32" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>989</v>
-      </c>
-      <c r="B33">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E33">
-        <v>8076701</v>
-      </c>
-      <c r="F33">
-        <v>20</v>
-      </c>
-      <c r="G33">
-        <v>10</v>
-      </c>
-      <c r="H33">
-        <v>59761</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J33">
-        <v>714</v>
-      </c>
-      <c r="L33" t="s">
-        <v>993</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>1059</v>
-      </c>
-      <c r="O33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="P33">
-        <v>85426</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>997</v>
-      </c>
-      <c r="R33" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S33">
-        <v>23</v>
-      </c>
-      <c r="T33">
-        <v>80</v>
-      </c>
-      <c r="U33">
-        <v>10</v>
-      </c>
-      <c r="V33" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>989</v>
-      </c>
-      <c r="B34">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E34">
-        <v>8076701</v>
-      </c>
-      <c r="F34">
-        <v>20</v>
-      </c>
-      <c r="G34">
-        <v>10</v>
-      </c>
-      <c r="H34">
-        <v>59761</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J34">
-        <v>714</v>
-      </c>
-      <c r="L34" t="s">
-        <v>993</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
-        <v>1061</v>
-      </c>
-      <c r="O34" t="s">
-        <v>1062</v>
-      </c>
-      <c r="P34">
-        <v>85426</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>997</v>
-      </c>
-      <c r="R34" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S34">
-        <v>24</v>
-      </c>
-      <c r="T34">
-        <v>80</v>
-      </c>
-      <c r="U34">
-        <v>10</v>
-      </c>
-      <c r="V34" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>989</v>
-      </c>
-      <c r="B35">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E35">
-        <v>8076701</v>
-      </c>
-      <c r="F35">
-        <v>20</v>
-      </c>
-      <c r="G35">
-        <v>10</v>
-      </c>
-      <c r="H35">
-        <v>59761</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J35">
-        <v>714</v>
-      </c>
-      <c r="L35" t="s">
-        <v>993</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
-        <v>1063</v>
-      </c>
-      <c r="O35" t="s">
-        <v>1064</v>
-      </c>
-      <c r="P35">
-        <v>85426</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>997</v>
-      </c>
-      <c r="R35" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S35">
-        <v>25</v>
-      </c>
-      <c r="T35">
-        <v>80</v>
-      </c>
-      <c r="U35">
-        <v>10</v>
-      </c>
-      <c r="V35" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>989</v>
-      </c>
-      <c r="B36">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E36">
-        <v>8076701</v>
-      </c>
-      <c r="F36">
-        <v>20</v>
-      </c>
-      <c r="G36">
-        <v>10</v>
-      </c>
-      <c r="H36">
-        <v>59761</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J36">
-        <v>714</v>
-      </c>
-      <c r="L36" t="s">
-        <v>993</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
-        <v>1065</v>
-      </c>
-      <c r="O36" t="s">
-        <v>1066</v>
-      </c>
-      <c r="P36">
-        <v>85426</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>997</v>
-      </c>
-      <c r="R36" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S36">
-        <v>26</v>
-      </c>
-      <c r="T36">
-        <v>80</v>
-      </c>
-      <c r="U36">
-        <v>10</v>
-      </c>
-      <c r="V36" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>989</v>
-      </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E37">
-        <v>8076701</v>
-      </c>
-      <c r="F37">
-        <v>20</v>
-      </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-      <c r="H37">
-        <v>59761</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J37">
-        <v>714</v>
-      </c>
-      <c r="L37" t="s">
-        <v>993</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
-        <v>1067</v>
-      </c>
-      <c r="O37" t="s">
-        <v>1068</v>
-      </c>
-      <c r="P37">
-        <v>85426</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>997</v>
-      </c>
-      <c r="R37" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S37">
-        <v>27</v>
-      </c>
-      <c r="T37">
-        <v>80</v>
-      </c>
-      <c r="U37">
-        <v>10</v>
-      </c>
-      <c r="V37" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>989</v>
-      </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E38">
-        <v>5060101</v>
-      </c>
-      <c r="F38">
-        <v>11</v>
-      </c>
-      <c r="G38">
-        <v>8</v>
-      </c>
-      <c r="H38">
-        <v>59736</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J38">
-        <v>351</v>
-      </c>
-      <c r="L38" t="s">
-        <v>993</v>
-      </c>
-      <c r="M38">
-        <v>6000</v>
-      </c>
-      <c r="N38" t="s">
-        <v>1069</v>
-      </c>
-      <c r="O38" t="s">
-        <v>1070</v>
-      </c>
-      <c r="P38">
-        <v>84971</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>121</v>
-      </c>
-      <c r="R38" t="s">
-        <v>1014</v>
-      </c>
-      <c r="S38">
-        <v>75</v>
-      </c>
-      <c r="T38">
-        <v>114166984</v>
-      </c>
-      <c r="U38">
-        <v>114166440</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>989</v>
-      </c>
-      <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E39">
-        <v>8076701</v>
-      </c>
-      <c r="F39">
-        <v>20</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="H39">
-        <v>59761</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J39">
-        <v>714</v>
-      </c>
-      <c r="L39" t="s">
-        <v>993</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
-        <v>1071</v>
-      </c>
-      <c r="O39" t="s">
-        <v>1072</v>
-      </c>
-      <c r="P39">
-        <v>85426</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>997</v>
-      </c>
-      <c r="R39" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S39">
-        <v>28</v>
-      </c>
-      <c r="T39">
-        <v>80</v>
-      </c>
-      <c r="U39">
-        <v>10</v>
-      </c>
-      <c r="V39" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>989</v>
-      </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E40">
-        <v>5096905</v>
-      </c>
-      <c r="F40">
-        <v>20</v>
-      </c>
-      <c r="G40">
-        <v>12</v>
-      </c>
-      <c r="H40">
-        <v>59127</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J40">
-        <v>351</v>
-      </c>
-      <c r="L40" t="s">
-        <v>993</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
-        <v>1073</v>
-      </c>
-      <c r="O40" t="s">
-        <v>1074</v>
-      </c>
-      <c r="P40">
-        <v>86217</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>997</v>
-      </c>
-      <c r="R40" t="s">
-        <v>121</v>
-      </c>
-      <c r="S40">
-        <v>29</v>
-      </c>
-      <c r="T40">
-        <v>48</v>
-      </c>
-      <c r="U40">
-        <v>12</v>
-      </c>
-      <c r="V40" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>989</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E41">
-        <v>5096905</v>
-      </c>
-      <c r="F41">
-        <v>20</v>
-      </c>
-      <c r="G41">
-        <v>12</v>
-      </c>
-      <c r="H41">
-        <v>59127</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J41">
-        <v>351</v>
-      </c>
-      <c r="L41" t="s">
-        <v>993</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
-        <v>1077</v>
-      </c>
-      <c r="O41" t="s">
-        <v>1078</v>
-      </c>
-      <c r="P41">
-        <v>86217</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>997</v>
-      </c>
-      <c r="R41" t="s">
-        <v>121</v>
-      </c>
-      <c r="S41">
-        <v>30</v>
-      </c>
-      <c r="T41">
-        <v>48</v>
-      </c>
-      <c r="U41">
-        <v>12</v>
-      </c>
-      <c r="V41" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>989</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E42">
-        <v>5096905</v>
-      </c>
-      <c r="F42">
-        <v>20</v>
-      </c>
-      <c r="G42">
-        <v>12</v>
-      </c>
-      <c r="H42">
-        <v>59127</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J42">
-        <v>351</v>
-      </c>
-      <c r="L42" t="s">
-        <v>993</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
-        <v>1079</v>
-      </c>
-      <c r="O42" t="s">
-        <v>1080</v>
-      </c>
-      <c r="P42">
-        <v>86217</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>997</v>
-      </c>
-      <c r="R42" t="s">
-        <v>121</v>
-      </c>
-      <c r="S42">
-        <v>31</v>
-      </c>
-      <c r="T42">
-        <v>48</v>
-      </c>
-      <c r="U42">
-        <v>12</v>
-      </c>
-      <c r="V42" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>989</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E43">
-        <v>5096905</v>
-      </c>
-      <c r="F43">
-        <v>20</v>
-      </c>
-      <c r="G43">
-        <v>12</v>
-      </c>
-      <c r="H43">
-        <v>59127</v>
-      </c>
-      <c r="I43" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J43">
-        <v>351</v>
-      </c>
-      <c r="L43" t="s">
-        <v>993</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
-        <v>1081</v>
-      </c>
-      <c r="O43" t="s">
-        <v>1082</v>
-      </c>
-      <c r="P43">
-        <v>86217</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>997</v>
-      </c>
-      <c r="R43" t="s">
-        <v>121</v>
-      </c>
-      <c r="S43">
-        <v>32</v>
-      </c>
-      <c r="T43">
-        <v>48</v>
-      </c>
-      <c r="U43">
-        <v>12</v>
-      </c>
-      <c r="V43" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>989</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E44">
-        <v>5060101</v>
-      </c>
-      <c r="F44">
-        <v>11</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>59736</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J44">
-        <v>351</v>
-      </c>
-      <c r="L44" t="s">
-        <v>993</v>
-      </c>
-      <c r="M44">
-        <v>6000</v>
-      </c>
-      <c r="N44" t="s">
-        <v>1083</v>
-      </c>
-      <c r="O44" t="s">
-        <v>1084</v>
-      </c>
-      <c r="P44">
-        <v>84971</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>121</v>
-      </c>
-      <c r="R44" t="s">
-        <v>1014</v>
-      </c>
-      <c r="S44">
-        <v>76</v>
-      </c>
-      <c r="T44">
-        <v>122233824</v>
-      </c>
-      <c r="U44">
-        <v>122232600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>989</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E45">
-        <v>5096905</v>
-      </c>
-      <c r="F45">
-        <v>20</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="H45">
-        <v>59692</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J45">
-        <v>351</v>
-      </c>
-      <c r="L45" t="s">
-        <v>993</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
-        <v>1082</v>
-      </c>
-      <c r="O45" t="s">
-        <v>1085</v>
-      </c>
-      <c r="P45">
-        <v>86217</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>997</v>
-      </c>
-      <c r="R45" t="s">
-        <v>121</v>
-      </c>
-      <c r="S45">
-        <v>33</v>
-      </c>
-      <c r="T45">
-        <v>36</v>
-      </c>
-      <c r="U45">
-        <v>4</v>
-      </c>
-      <c r="V45" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>989</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E46">
-        <v>5096905</v>
-      </c>
-      <c r="F46">
-        <v>20</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="H46">
-        <v>59692</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J46">
-        <v>351</v>
-      </c>
-      <c r="L46" t="s">
-        <v>993</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
-        <v>1087</v>
-      </c>
-      <c r="O46" t="s">
-        <v>1088</v>
-      </c>
-      <c r="P46">
-        <v>86217</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>997</v>
-      </c>
-      <c r="R46" t="s">
-        <v>121</v>
-      </c>
-      <c r="S46">
-        <v>34</v>
-      </c>
-      <c r="T46">
-        <v>36</v>
-      </c>
-      <c r="U46">
-        <v>4</v>
-      </c>
-      <c r="V46" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>989</v>
-      </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E47">
-        <v>5096905</v>
-      </c>
-      <c r="F47">
-        <v>20</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="H47">
-        <v>59692</v>
-      </c>
-      <c r="I47" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J47">
-        <v>351</v>
-      </c>
-      <c r="L47" t="s">
-        <v>993</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
-        <v>1089</v>
-      </c>
-      <c r="O47" t="s">
-        <v>1090</v>
-      </c>
-      <c r="P47">
-        <v>86217</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>997</v>
-      </c>
-      <c r="R47" t="s">
-        <v>121</v>
-      </c>
-      <c r="S47">
-        <v>35</v>
-      </c>
-      <c r="T47">
-        <v>36</v>
-      </c>
-      <c r="U47">
-        <v>4</v>
-      </c>
-      <c r="V47" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>989</v>
-      </c>
-      <c r="B48">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E48">
-        <v>5096905</v>
-      </c>
-      <c r="F48">
-        <v>20</v>
-      </c>
-      <c r="G48">
-        <v>4</v>
-      </c>
-      <c r="H48">
-        <v>59692</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J48">
-        <v>351</v>
-      </c>
-      <c r="L48" t="s">
-        <v>993</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="O48" t="s">
-        <v>1092</v>
-      </c>
-      <c r="P48">
-        <v>86217</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>997</v>
-      </c>
-      <c r="R48" t="s">
-        <v>121</v>
-      </c>
-      <c r="S48">
-        <v>36</v>
-      </c>
-      <c r="T48">
-        <v>36</v>
-      </c>
-      <c r="U48">
-        <v>4</v>
-      </c>
-      <c r="V48" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>989</v>
-      </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E49">
-        <v>5096905</v>
-      </c>
-      <c r="F49">
-        <v>20</v>
-      </c>
-      <c r="G49">
-        <v>4</v>
-      </c>
-      <c r="H49">
-        <v>59692</v>
-      </c>
-      <c r="I49" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J49">
-        <v>351</v>
-      </c>
-      <c r="L49" t="s">
-        <v>993</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
-        <v>1093</v>
-      </c>
-      <c r="O49" t="s">
-        <v>1094</v>
-      </c>
-      <c r="P49">
-        <v>86217</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>997</v>
-      </c>
-      <c r="R49" t="s">
-        <v>121</v>
-      </c>
-      <c r="S49">
-        <v>37</v>
-      </c>
-      <c r="T49">
-        <v>36</v>
-      </c>
-      <c r="U49">
-        <v>4</v>
-      </c>
-      <c r="V49" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>989</v>
-      </c>
-      <c r="B50">
-        <v>48</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E50">
-        <v>5096905</v>
-      </c>
-      <c r="F50">
-        <v>20</v>
-      </c>
-      <c r="G50">
-        <v>4</v>
-      </c>
-      <c r="H50">
-        <v>59692</v>
-      </c>
-      <c r="I50" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J50">
-        <v>351</v>
-      </c>
-      <c r="L50" t="s">
-        <v>993</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" t="s">
-        <v>1095</v>
-      </c>
-      <c r="O50" t="s">
-        <v>1096</v>
-      </c>
-      <c r="P50">
-        <v>86217</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>997</v>
-      </c>
-      <c r="R50" t="s">
-        <v>121</v>
-      </c>
-      <c r="S50">
-        <v>38</v>
-      </c>
-      <c r="T50">
-        <v>36</v>
-      </c>
-      <c r="U50">
-        <v>4</v>
-      </c>
-      <c r="V50" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>989</v>
-      </c>
-      <c r="B51">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E51">
-        <v>5096905</v>
-      </c>
-      <c r="F51">
-        <v>20</v>
-      </c>
-      <c r="G51">
-        <v>4</v>
-      </c>
-      <c r="H51">
-        <v>59692</v>
-      </c>
-      <c r="I51" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J51">
-        <v>351</v>
-      </c>
-      <c r="L51" t="s">
-        <v>993</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
-        <v>1097</v>
-      </c>
-      <c r="O51" t="s">
-        <v>1098</v>
-      </c>
-      <c r="P51">
-        <v>86217</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>997</v>
-      </c>
-      <c r="R51" t="s">
-        <v>121</v>
-      </c>
-      <c r="S51">
-        <v>39</v>
-      </c>
-      <c r="T51">
-        <v>36</v>
-      </c>
-      <c r="U51">
-        <v>4</v>
-      </c>
-      <c r="V51" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>989</v>
-      </c>
-      <c r="B52">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E52">
-        <v>5096905</v>
-      </c>
-      <c r="F52">
-        <v>20</v>
-      </c>
-      <c r="G52">
-        <v>4</v>
-      </c>
-      <c r="H52">
-        <v>59692</v>
-      </c>
-      <c r="I52" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J52">
-        <v>351</v>
-      </c>
-      <c r="L52" t="s">
-        <v>993</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52" t="s">
-        <v>1099</v>
-      </c>
-      <c r="O52" t="s">
-        <v>1100</v>
-      </c>
-      <c r="P52">
-        <v>86217</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>997</v>
-      </c>
-      <c r="R52" t="s">
-        <v>121</v>
-      </c>
-      <c r="S52">
-        <v>40</v>
-      </c>
-      <c r="T52">
-        <v>36</v>
-      </c>
-      <c r="U52">
-        <v>4</v>
-      </c>
-      <c r="V52" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>989</v>
-      </c>
-      <c r="B53">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E53">
-        <v>5096905</v>
-      </c>
-      <c r="F53">
-        <v>20</v>
-      </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-      <c r="H53">
-        <v>59692</v>
-      </c>
-      <c r="I53" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J53">
-        <v>351</v>
-      </c>
-      <c r="L53" t="s">
-        <v>993</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53" t="s">
-        <v>1101</v>
-      </c>
-      <c r="O53" t="s">
-        <v>1102</v>
-      </c>
-      <c r="P53">
-        <v>86217</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>997</v>
-      </c>
-      <c r="R53" t="s">
-        <v>121</v>
-      </c>
-      <c r="S53">
-        <v>41</v>
-      </c>
-      <c r="T53">
-        <v>36</v>
-      </c>
-      <c r="U53">
-        <v>4</v>
-      </c>
-      <c r="V53" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>989</v>
-      </c>
-      <c r="B54">
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E54">
-        <v>5096905</v>
-      </c>
-      <c r="F54">
-        <v>20</v>
-      </c>
-      <c r="G54">
-        <v>12</v>
-      </c>
-      <c r="H54">
-        <v>59693</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J54">
-        <v>351</v>
-      </c>
-      <c r="L54" t="s">
-        <v>993</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54" t="s">
-        <v>1103</v>
-      </c>
-      <c r="O54" t="s">
-        <v>1104</v>
-      </c>
-      <c r="P54">
-        <v>86217</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>997</v>
-      </c>
-      <c r="R54" t="s">
-        <v>121</v>
-      </c>
-      <c r="S54">
-        <v>42</v>
-      </c>
-      <c r="T54">
-        <v>55</v>
-      </c>
-      <c r="U54">
-        <v>12</v>
-      </c>
-      <c r="V54" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>989</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E55">
-        <v>5096905</v>
-      </c>
-      <c r="F55">
-        <v>20</v>
-      </c>
-      <c r="G55">
-        <v>12</v>
-      </c>
-      <c r="H55">
-        <v>59693</v>
-      </c>
-      <c r="I55" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J55">
-        <v>351</v>
-      </c>
-      <c r="L55" t="s">
-        <v>993</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55" t="s">
-        <v>1106</v>
-      </c>
-      <c r="O55" t="s">
-        <v>1107</v>
-      </c>
-      <c r="P55">
-        <v>86217</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>997</v>
-      </c>
-      <c r="R55" t="s">
-        <v>121</v>
-      </c>
-      <c r="S55">
-        <v>43</v>
-      </c>
-      <c r="T55">
-        <v>55</v>
-      </c>
-      <c r="U55">
-        <v>12</v>
-      </c>
-      <c r="V55" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>989</v>
-      </c>
-      <c r="B56">
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E56">
-        <v>5096905</v>
-      </c>
-      <c r="F56">
-        <v>20</v>
-      </c>
-      <c r="G56">
-        <v>12</v>
-      </c>
-      <c r="H56">
-        <v>59693</v>
-      </c>
-      <c r="I56" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J56">
-        <v>351</v>
-      </c>
-      <c r="L56" t="s">
-        <v>993</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56" t="s">
-        <v>1108</v>
-      </c>
-      <c r="O56" t="s">
-        <v>1109</v>
-      </c>
-      <c r="P56">
-        <v>86217</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>997</v>
-      </c>
-      <c r="R56" t="s">
-        <v>121</v>
-      </c>
-      <c r="S56">
-        <v>44</v>
-      </c>
-      <c r="T56">
-        <v>55</v>
-      </c>
-      <c r="U56">
-        <v>12</v>
-      </c>
-      <c r="V56" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>989</v>
-      </c>
-      <c r="B57">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E57">
-        <v>5096905</v>
-      </c>
-      <c r="F57">
-        <v>20</v>
-      </c>
-      <c r="G57">
-        <v>12</v>
-      </c>
-      <c r="H57">
-        <v>59693</v>
-      </c>
-      <c r="I57" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J57">
-        <v>351</v>
-      </c>
-      <c r="L57" t="s">
-        <v>993</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57" t="s">
-        <v>1110</v>
-      </c>
-      <c r="O57" t="s">
-        <v>1111</v>
-      </c>
-      <c r="P57">
-        <v>86217</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>997</v>
-      </c>
-      <c r="R57" t="s">
-        <v>121</v>
-      </c>
-      <c r="S57">
-        <v>45</v>
-      </c>
-      <c r="T57">
-        <v>55</v>
-      </c>
-      <c r="U57">
-        <v>12</v>
-      </c>
-      <c r="V57" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>989</v>
-      </c>
-      <c r="B58">
-        <v>56</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E58">
-        <v>5096905</v>
-      </c>
-      <c r="F58">
-        <v>20</v>
-      </c>
-      <c r="G58">
-        <v>7</v>
-      </c>
-      <c r="H58">
-        <v>59693</v>
-      </c>
-      <c r="I58" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J58">
-        <v>351</v>
-      </c>
-      <c r="L58" t="s">
-        <v>993</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58" t="s">
-        <v>1112</v>
-      </c>
-      <c r="O58" t="s">
-        <v>1113</v>
-      </c>
-      <c r="P58">
-        <v>86217</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>997</v>
-      </c>
-      <c r="R58" t="s">
-        <v>121</v>
-      </c>
-      <c r="S58">
-        <v>46</v>
-      </c>
-      <c r="T58">
-        <v>55</v>
-      </c>
-      <c r="U58">
-        <v>12</v>
-      </c>
-      <c r="V58" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>989</v>
-      </c>
-      <c r="B59">
-        <v>57</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E59">
-        <v>5096905</v>
-      </c>
-      <c r="F59">
-        <v>20</v>
-      </c>
-      <c r="G59">
-        <v>12</v>
-      </c>
-      <c r="H59">
-        <v>59694</v>
-      </c>
-      <c r="I59" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J59">
-        <v>351</v>
-      </c>
-      <c r="L59" t="s">
-        <v>993</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59" t="s">
-        <v>1114</v>
-      </c>
-      <c r="O59" t="s">
-        <v>1115</v>
-      </c>
-      <c r="P59">
-        <v>86217</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>997</v>
-      </c>
-      <c r="R59" t="s">
-        <v>121</v>
-      </c>
-      <c r="S59">
-        <v>47</v>
-      </c>
-      <c r="T59">
-        <v>72</v>
-      </c>
-      <c r="U59">
-        <v>12</v>
-      </c>
-      <c r="V59" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>989</v>
-      </c>
-      <c r="B60">
-        <v>58</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E60">
-        <v>5096905</v>
-      </c>
-      <c r="F60">
-        <v>20</v>
-      </c>
-      <c r="G60">
-        <v>12</v>
-      </c>
-      <c r="H60">
-        <v>59694</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J60">
-        <v>351</v>
-      </c>
-      <c r="L60" t="s">
-        <v>993</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60" t="s">
-        <v>1117</v>
-      </c>
-      <c r="O60" t="s">
-        <v>1118</v>
-      </c>
-      <c r="P60">
-        <v>86217</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>997</v>
-      </c>
-      <c r="R60" t="s">
-        <v>121</v>
-      </c>
-      <c r="S60">
-        <v>48</v>
-      </c>
-      <c r="T60">
-        <v>72</v>
-      </c>
-      <c r="U60">
-        <v>12</v>
-      </c>
-      <c r="V60" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>989</v>
-      </c>
-      <c r="B61">
-        <v>59</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E61">
-        <v>5096905</v>
-      </c>
-      <c r="F61">
-        <v>20</v>
-      </c>
-      <c r="G61">
-        <v>12</v>
-      </c>
-      <c r="H61">
-        <v>59694</v>
-      </c>
-      <c r="I61" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J61">
-        <v>351</v>
-      </c>
-      <c r="L61" t="s">
-        <v>993</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61" t="s">
-        <v>1119</v>
-      </c>
-      <c r="O61" t="s">
-        <v>1120</v>
-      </c>
-      <c r="P61">
-        <v>86217</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>997</v>
-      </c>
-      <c r="R61" t="s">
-        <v>121</v>
-      </c>
-      <c r="S61">
-        <v>49</v>
-      </c>
-      <c r="T61">
-        <v>72</v>
-      </c>
-      <c r="U61">
-        <v>12</v>
-      </c>
-      <c r="V61" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>989</v>
-      </c>
-      <c r="B62">
-        <v>60</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E62">
-        <v>5096905</v>
-      </c>
-      <c r="F62">
-        <v>20</v>
-      </c>
-      <c r="G62">
-        <v>12</v>
-      </c>
-      <c r="H62">
-        <v>59694</v>
-      </c>
-      <c r="I62" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J62">
-        <v>351</v>
-      </c>
-      <c r="L62" t="s">
-        <v>993</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62" t="s">
-        <v>1121</v>
-      </c>
-      <c r="O62" t="s">
-        <v>1122</v>
-      </c>
-      <c r="P62">
-        <v>86217</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>997</v>
-      </c>
-      <c r="R62" t="s">
-        <v>121</v>
-      </c>
-      <c r="S62">
-        <v>50</v>
-      </c>
-      <c r="T62">
-        <v>72</v>
-      </c>
-      <c r="U62">
-        <v>12</v>
-      </c>
-      <c r="V62" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>989</v>
-      </c>
-      <c r="B63">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E63">
-        <v>5096905</v>
-      </c>
-      <c r="F63">
-        <v>20</v>
-      </c>
-      <c r="G63">
-        <v>12</v>
-      </c>
-      <c r="H63">
-        <v>59694</v>
-      </c>
-      <c r="I63" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J63">
-        <v>351</v>
-      </c>
-      <c r="L63" t="s">
-        <v>993</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63" t="s">
-        <v>1123</v>
-      </c>
-      <c r="O63" t="s">
-        <v>1124</v>
-      </c>
-      <c r="P63">
-        <v>86217</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>997</v>
-      </c>
-      <c r="R63" t="s">
-        <v>121</v>
-      </c>
-      <c r="S63">
-        <v>51</v>
-      </c>
-      <c r="T63">
-        <v>72</v>
-      </c>
-      <c r="U63">
-        <v>12</v>
-      </c>
-      <c r="V63" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>989</v>
-      </c>
-      <c r="B64">
-        <v>62</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E64">
-        <v>5096905</v>
-      </c>
-      <c r="F64">
-        <v>20</v>
-      </c>
-      <c r="G64">
-        <v>12</v>
-      </c>
-      <c r="H64">
-        <v>59694</v>
-      </c>
-      <c r="I64" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J64">
-        <v>351</v>
-      </c>
-      <c r="L64" t="s">
-        <v>993</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64" t="s">
-        <v>1125</v>
-      </c>
-      <c r="O64" t="s">
-        <v>1126</v>
-      </c>
-      <c r="P64">
-        <v>86217</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>997</v>
-      </c>
-      <c r="R64" t="s">
-        <v>121</v>
-      </c>
-      <c r="S64">
-        <v>52</v>
-      </c>
-      <c r="T64">
-        <v>72</v>
-      </c>
-      <c r="U64">
-        <v>12</v>
-      </c>
-      <c r="V64" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>989</v>
-      </c>
-      <c r="B65">
-        <v>63</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E65">
-        <v>5096905</v>
-      </c>
-      <c r="F65">
-        <v>20</v>
-      </c>
-      <c r="G65">
-        <v>12</v>
-      </c>
-      <c r="H65">
-        <v>59695</v>
-      </c>
-      <c r="I65" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J65">
-        <v>351</v>
-      </c>
-      <c r="L65" t="s">
-        <v>993</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65" t="s">
-        <v>1127</v>
-      </c>
-      <c r="O65" t="s">
-        <v>1128</v>
-      </c>
-      <c r="P65">
-        <v>86217</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>997</v>
-      </c>
-      <c r="R65" t="s">
-        <v>121</v>
-      </c>
-      <c r="S65">
-        <v>53</v>
-      </c>
-      <c r="T65">
-        <v>80</v>
-      </c>
-      <c r="U65">
-        <v>12</v>
-      </c>
-      <c r="V65" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>989</v>
-      </c>
-      <c r="B66">
-        <v>64</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E66">
-        <v>5096905</v>
-      </c>
-      <c r="F66">
-        <v>20</v>
-      </c>
-      <c r="G66">
-        <v>12</v>
-      </c>
-      <c r="H66">
-        <v>59695</v>
-      </c>
-      <c r="I66" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J66">
-        <v>351</v>
-      </c>
-      <c r="L66" t="s">
-        <v>993</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66" t="s">
-        <v>1130</v>
-      </c>
-      <c r="O66" t="s">
-        <v>1131</v>
-      </c>
-      <c r="P66">
-        <v>86217</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>997</v>
-      </c>
-      <c r="R66" t="s">
-        <v>121</v>
-      </c>
-      <c r="S66">
-        <v>54</v>
-      </c>
-      <c r="T66">
-        <v>80</v>
-      </c>
-      <c r="U66">
-        <v>12</v>
-      </c>
-      <c r="V66" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>989</v>
-      </c>
-      <c r="B67">
-        <v>65</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E67">
-        <v>5096905</v>
-      </c>
-      <c r="F67">
-        <v>20</v>
-      </c>
-      <c r="G67">
-        <v>12</v>
-      </c>
-      <c r="H67">
-        <v>59695</v>
-      </c>
-      <c r="I67" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J67">
-        <v>351</v>
-      </c>
-      <c r="L67" t="s">
-        <v>993</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67" t="s">
-        <v>1132</v>
-      </c>
-      <c r="O67" t="s">
-        <v>1133</v>
-      </c>
-      <c r="P67">
-        <v>86217</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>997</v>
-      </c>
-      <c r="R67" t="s">
-        <v>121</v>
-      </c>
-      <c r="S67">
-        <v>55</v>
-      </c>
-      <c r="T67">
-        <v>80</v>
-      </c>
-      <c r="U67">
-        <v>12</v>
-      </c>
-      <c r="V67" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>989</v>
-      </c>
-      <c r="B68">
-        <v>66</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E68">
-        <v>5096905</v>
-      </c>
-      <c r="F68">
-        <v>20</v>
-      </c>
-      <c r="G68">
-        <v>12</v>
-      </c>
-      <c r="H68">
-        <v>59695</v>
-      </c>
-      <c r="I68" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J68">
-        <v>351</v>
-      </c>
-      <c r="L68" t="s">
-        <v>993</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68" t="s">
-        <v>1134</v>
-      </c>
-      <c r="O68" t="s">
-        <v>1135</v>
-      </c>
-      <c r="P68">
-        <v>86217</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>997</v>
-      </c>
-      <c r="R68" t="s">
-        <v>121</v>
-      </c>
-      <c r="S68">
-        <v>56</v>
-      </c>
-      <c r="T68">
-        <v>80</v>
-      </c>
-      <c r="U68">
-        <v>12</v>
-      </c>
-      <c r="V68" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>989</v>
-      </c>
-      <c r="B69">
-        <v>67</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E69">
-        <v>5096905</v>
-      </c>
-      <c r="F69">
-        <v>20</v>
-      </c>
-      <c r="G69">
-        <v>12</v>
-      </c>
-      <c r="H69">
-        <v>59695</v>
-      </c>
-      <c r="I69" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J69">
-        <v>351</v>
-      </c>
-      <c r="L69" t="s">
-        <v>993</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69" t="s">
-        <v>1136</v>
-      </c>
-      <c r="O69" t="s">
-        <v>1137</v>
-      </c>
-      <c r="P69">
-        <v>86217</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>997</v>
-      </c>
-      <c r="R69" t="s">
-        <v>121</v>
-      </c>
-      <c r="S69">
-        <v>57</v>
-      </c>
-      <c r="T69">
-        <v>80</v>
-      </c>
-      <c r="U69">
-        <v>12</v>
-      </c>
-      <c r="V69" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>989</v>
-      </c>
-      <c r="B70">
-        <v>68</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E70">
-        <v>5096905</v>
-      </c>
-      <c r="F70">
-        <v>20</v>
-      </c>
-      <c r="G70">
-        <v>12</v>
-      </c>
-      <c r="H70">
-        <v>59695</v>
-      </c>
-      <c r="I70" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J70">
-        <v>351</v>
-      </c>
-      <c r="L70" t="s">
-        <v>993</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70" t="s">
-        <v>1138</v>
-      </c>
-      <c r="O70" t="s">
-        <v>1139</v>
-      </c>
-      <c r="P70">
-        <v>86217</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>997</v>
-      </c>
-      <c r="R70" t="s">
-        <v>121</v>
-      </c>
-      <c r="S70">
-        <v>58</v>
-      </c>
-      <c r="T70">
-        <v>80</v>
-      </c>
-      <c r="U70">
-        <v>12</v>
-      </c>
-      <c r="V70" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>989</v>
-      </c>
-      <c r="B71">
-        <v>69</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E71">
-        <v>5096905</v>
-      </c>
-      <c r="F71">
-        <v>20</v>
-      </c>
-      <c r="G71">
-        <v>8</v>
-      </c>
-      <c r="H71">
-        <v>59695</v>
-      </c>
-      <c r="I71" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J71">
-        <v>351</v>
-      </c>
-      <c r="L71" t="s">
-        <v>993</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71" t="s">
-        <v>1140</v>
-      </c>
-      <c r="O71" t="s">
-        <v>1141</v>
-      </c>
-      <c r="P71">
-        <v>86217</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>997</v>
-      </c>
-      <c r="R71" t="s">
-        <v>121</v>
-      </c>
-      <c r="S71">
-        <v>59</v>
-      </c>
-      <c r="T71">
-        <v>80</v>
-      </c>
-      <c r="U71">
-        <v>12</v>
-      </c>
-      <c r="V71" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>989</v>
-      </c>
-      <c r="B72">
-        <v>70</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E72">
-        <v>5096905</v>
-      </c>
-      <c r="F72">
-        <v>20</v>
-      </c>
-      <c r="G72">
-        <v>12</v>
-      </c>
-      <c r="H72">
-        <v>59696</v>
-      </c>
-      <c r="I72" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J72">
-        <v>351</v>
-      </c>
-      <c r="L72" t="s">
-        <v>993</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72" t="s">
-        <v>1142</v>
-      </c>
-      <c r="O72" t="s">
-        <v>1143</v>
-      </c>
-      <c r="P72">
-        <v>86217</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>997</v>
-      </c>
-      <c r="R72" t="s">
-        <v>121</v>
-      </c>
-      <c r="S72">
-        <v>60</v>
-      </c>
-      <c r="T72">
-        <v>125267664</v>
-      </c>
-      <c r="U72">
-        <v>125266168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>989</v>
-      </c>
-      <c r="B73">
-        <v>71</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E73">
-        <v>5096905</v>
-      </c>
-      <c r="F73">
-        <v>20</v>
-      </c>
-      <c r="G73">
-        <v>12</v>
-      </c>
-      <c r="H73">
-        <v>59696</v>
-      </c>
-      <c r="I73" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J73">
-        <v>351</v>
-      </c>
-      <c r="L73" t="s">
-        <v>993</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73" t="s">
-        <v>1144</v>
-      </c>
-      <c r="O73" t="s">
-        <v>1145</v>
-      </c>
-      <c r="P73">
-        <v>86217</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>997</v>
-      </c>
-      <c r="R73" t="s">
-        <v>121</v>
-      </c>
-      <c r="S73">
-        <v>61</v>
-      </c>
-      <c r="T73">
-        <v>126213640</v>
-      </c>
-      <c r="U73">
-        <v>126211056</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>989</v>
-      </c>
-      <c r="B74">
-        <v>72</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E74">
-        <v>5096905</v>
-      </c>
-      <c r="F74">
-        <v>20</v>
-      </c>
-      <c r="G74">
-        <v>12</v>
-      </c>
-      <c r="H74">
-        <v>59696</v>
-      </c>
-      <c r="I74" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J74">
-        <v>351</v>
-      </c>
-      <c r="L74" t="s">
-        <v>993</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74" t="s">
-        <v>1146</v>
-      </c>
-      <c r="O74" t="s">
-        <v>1147</v>
-      </c>
-      <c r="P74">
-        <v>86217</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>997</v>
-      </c>
-      <c r="R74" t="s">
-        <v>121</v>
-      </c>
-      <c r="S74">
-        <v>62</v>
-      </c>
-      <c r="T74">
-        <v>114001448</v>
-      </c>
-      <c r="U74">
-        <v>114003352</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>989</v>
-      </c>
-      <c r="B75">
-        <v>73</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E75">
-        <v>5096905</v>
-      </c>
-      <c r="F75">
-        <v>20</v>
-      </c>
-      <c r="G75">
-        <v>12</v>
-      </c>
-      <c r="H75">
-        <v>59696</v>
-      </c>
-      <c r="I75" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J75">
-        <v>351</v>
-      </c>
-      <c r="L75" t="s">
-        <v>993</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75" t="s">
-        <v>1148</v>
-      </c>
-      <c r="O75" t="s">
-        <v>1149</v>
-      </c>
-      <c r="P75">
-        <v>86217</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>997</v>
-      </c>
-      <c r="R75" t="s">
-        <v>121</v>
-      </c>
-      <c r="S75">
-        <v>63</v>
-      </c>
-      <c r="T75">
-        <v>114686496</v>
-      </c>
-      <c r="U75">
-        <v>114685272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>989</v>
-      </c>
-      <c r="B76">
-        <v>74</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E76">
-        <v>5096905</v>
-      </c>
-      <c r="F76">
-        <v>20</v>
-      </c>
-      <c r="G76">
-        <v>12</v>
-      </c>
-      <c r="H76">
-        <v>59696</v>
-      </c>
-      <c r="I76" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J76">
-        <v>351</v>
-      </c>
-      <c r="L76" t="s">
-        <v>993</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76" t="s">
-        <v>1150</v>
-      </c>
-      <c r="O76" t="s">
-        <v>1151</v>
-      </c>
-      <c r="P76">
-        <v>86217</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>997</v>
-      </c>
-      <c r="R76" t="s">
-        <v>121</v>
-      </c>
-      <c r="S76">
-        <v>64</v>
-      </c>
-      <c r="T76">
-        <v>114545408</v>
-      </c>
-      <c r="U76">
-        <v>114547312</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>989</v>
-      </c>
-      <c r="B77">
-        <v>75</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E77">
-        <v>5096905</v>
-      </c>
-      <c r="F77">
-        <v>20</v>
-      </c>
-      <c r="G77">
-        <v>4</v>
-      </c>
-      <c r="H77">
-        <v>59696</v>
-      </c>
-      <c r="I77" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J77">
-        <v>351</v>
-      </c>
-      <c r="L77" t="s">
-        <v>993</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77" t="s">
-        <v>1152</v>
-      </c>
-      <c r="O77" t="s">
-        <v>1153</v>
-      </c>
-      <c r="P77">
-        <v>86217</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>997</v>
-      </c>
-      <c r="R77" t="s">
-        <v>121</v>
-      </c>
-      <c r="S77">
-        <v>65</v>
-      </c>
-      <c r="T77">
-        <v>122423792</v>
-      </c>
-      <c r="U77">
-        <v>122426920</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>989</v>
-      </c>
-      <c r="B78">
-        <v>76</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E78">
-        <v>5096905</v>
-      </c>
-      <c r="F78">
-        <v>20</v>
-      </c>
-      <c r="G78">
-        <v>9</v>
-      </c>
-      <c r="H78">
-        <v>59130</v>
-      </c>
-      <c r="I78" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J78">
-        <v>351</v>
-      </c>
-      <c r="L78" t="s">
-        <v>993</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78" t="s">
-        <v>1153</v>
-      </c>
-      <c r="O78" t="s">
-        <v>1154</v>
-      </c>
-      <c r="P78">
-        <v>86217</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>997</v>
-      </c>
-      <c r="R78" t="s">
-        <v>121</v>
-      </c>
-      <c r="S78">
-        <v>66</v>
-      </c>
-      <c r="T78">
-        <v>114270680</v>
-      </c>
-      <c r="U78">
-        <v>114267008</v>
-      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N79" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:V1" xr:uid="{723F9AEC-0A63-4794-9C16-93C59AE1C0EB}"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\algoritmo_genetico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2904459A-D802-48E4-BEE0-C9B0203F8941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3A6AF6-318A-4316-8FFD-EE2B11E3676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estibas" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estibas!$A$1:$T$701</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lingadas!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lingadas!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8202" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8125" uniqueCount="1139">
   <si>
     <t>ESTIBA</t>
   </si>
@@ -2945,12 +2945,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>MOVEMENT_TYPE</t>
-  </si>
-  <si>
-    <t>MOVEMENT_ID</t>
-  </si>
-  <si>
     <t>INICIAL_DATE_MOV</t>
   </si>
   <si>
@@ -2999,9 +2993,6 @@
     <t>CENTROSIG</t>
   </si>
   <si>
-    <t>ENTRADA</t>
-  </si>
-  <si>
     <t>20/05/2025. 06:00:36</t>
   </si>
   <si>
@@ -3465,6 +3456,9 @@
   </si>
   <si>
     <t>23/05/2025. 08:42:31</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -3508,7 +3502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3518,9 +3512,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3805,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47242,4110 +47233,3883 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723F9AEC-0A63-4794-9C16-93C59AE1C0EB}">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="9.140625" style="5"/>
-    <col min="14" max="14" width="30.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" style="5" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="5"/>
-    <col min="18" max="18" width="16.5703125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="5" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" style="5" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="5"/>
-    <col min="22" max="22" width="15.7109375" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="5" customWidth="1"/>
+    <col min="5" max="12" width="9.140625" style="5"/>
+    <col min="13" max="13" width="30.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" style="5" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="5"/>
+    <col min="17" max="17" width="16.5703125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" style="5" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="5"/>
+    <col min="21" max="21" width="15.7109375" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="Q1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="D2" s="5">
+        <v>5175402</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>28300</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" s="5">
+        <v>619</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>986</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="L2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="6">
+        <v>45797.250416666669</v>
+      </c>
+      <c r="N2" s="6">
+        <v>45797.251620370371</v>
+      </c>
+      <c r="O2" s="5">
+        <v>85331</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="E2" s="5">
+      <c r="C3" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="D3" s="5">
+        <v>936860</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>59209</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="I3" s="5">
+        <v>441</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>45797.423611111109</v>
+      </c>
+      <c r="N3" s="6">
+        <v>45797.42763888889</v>
+      </c>
+      <c r="O3" s="5">
+        <v>9173</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="D4" s="5">
+        <v>936860</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>59209</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="I4" s="5">
+        <v>441</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>45797.42765046296</v>
+      </c>
+      <c r="N4" s="6">
+        <v>45797.43167824074</v>
+      </c>
+      <c r="O4" s="5">
+        <v>9173</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="D5" s="5">
+        <v>936860</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>59209</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="I5" s="5">
+        <v>441</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>45797.431689814817</v>
+      </c>
+      <c r="N5" s="6">
+        <v>45797.435717592591</v>
+      </c>
+      <c r="O5" s="5">
+        <v>9173</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="D6" s="5">
+        <v>936860</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>59209</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="I6" s="5">
+        <v>441</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>45797.439768518518</v>
+      </c>
+      <c r="N6" s="6">
+        <v>45797.443796296298</v>
+      </c>
+      <c r="O6" s="5">
+        <v>9173</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="D7" s="5">
+        <v>936860</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>59209</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="I7" s="5">
+        <v>441</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>45797.443807870368</v>
+      </c>
+      <c r="N7" s="6">
+        <v>45797.447835648149</v>
+      </c>
+      <c r="O7" s="5">
+        <v>9173</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="5">
         <v>5175402</v>
       </c>
-      <c r="F2" s="5">
+      <c r="E8" s="5">
         <v>10</v>
       </c>
-      <c r="G2" s="5">
+      <c r="F8" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="5">
-        <v>28300</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="G8" s="5">
+        <v>59440</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="I8" s="5">
         <v>619</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M2" s="5">
+      <c r="K8" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L8" s="5">
         <v>1000</v>
       </c>
-      <c r="N2" s="6">
-        <v>45797.250416666669</v>
-      </c>
-      <c r="O2" s="6">
-        <v>45797.251620370371</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="M8" s="6">
+        <v>45798.047627314816</v>
+      </c>
+      <c r="N8" s="6">
+        <v>45798.048831018517</v>
+      </c>
+      <c r="O8" s="5">
         <v>85331</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5060101</v>
+      </c>
+      <c r="E9" s="5">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>28903</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I9" s="5">
+        <v>351</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="M9" s="6">
+        <v>45799.966921296298</v>
+      </c>
+      <c r="N9" s="6">
+        <v>45799.974953703706</v>
+      </c>
+      <c r="O9" s="5">
+        <v>84971</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D10" s="5">
+        <v>947303</v>
+      </c>
+      <c r="E10" s="5">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5">
+        <v>59595</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I10" s="5">
+        <v>668</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="L10" s="5">
+        <v>5000</v>
+      </c>
+      <c r="M10" s="6">
+        <v>45800.037453703706</v>
+      </c>
+      <c r="N10" s="6">
+        <v>45800.059282407405</v>
+      </c>
+      <c r="O10" s="5">
+        <v>9148</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5726207</v>
+      </c>
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="E3" s="5">
-        <v>936860</v>
-      </c>
-      <c r="F3" s="5">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5">
-        <v>5</v>
-      </c>
-      <c r="H3" s="5">
-        <v>59209</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="J3" s="5">
-        <v>441</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>45797.423611111109</v>
-      </c>
-      <c r="O3" s="6">
-        <v>45797.42763888889</v>
-      </c>
-      <c r="P3" s="5">
-        <v>9173</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>995</v>
-      </c>
-      <c r="E4" s="5">
-        <v>936860</v>
-      </c>
-      <c r="F4" s="5">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>59209</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="J4" s="5">
-        <v>441</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>45797.42765046296</v>
-      </c>
-      <c r="O4" s="6">
-        <v>45797.43167824074</v>
-      </c>
-      <c r="P4" s="5">
-        <v>9173</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="E5" s="5">
-        <v>936860</v>
-      </c>
-      <c r="F5" s="5">
-        <v>20</v>
-      </c>
-      <c r="G5" s="5">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5">
-        <v>59209</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="J5" s="5">
-        <v>441</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>45797.431689814817</v>
-      </c>
-      <c r="O5" s="6">
-        <v>45797.435717592591</v>
-      </c>
-      <c r="P5" s="5">
-        <v>9173</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>999</v>
-      </c>
-      <c r="E6" s="5">
-        <v>936860</v>
-      </c>
-      <c r="F6" s="5">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5">
-        <v>5</v>
-      </c>
-      <c r="H6" s="5">
-        <v>59209</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="J6" s="5">
-        <v>441</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>45797.439768518518</v>
-      </c>
-      <c r="O6" s="6">
-        <v>45797.443796296298</v>
-      </c>
-      <c r="P6" s="5">
-        <v>9173</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E7" s="5">
-        <v>936860</v>
-      </c>
-      <c r="F7" s="5">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5">
-        <v>3</v>
-      </c>
-      <c r="H7" s="5">
-        <v>59209</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="J7" s="5">
-        <v>441</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>45797.443807870368</v>
-      </c>
-      <c r="O7" s="6">
-        <v>45797.447835648149</v>
-      </c>
-      <c r="P7" s="5">
-        <v>9173</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B8" s="5">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="G11" s="5">
+        <v>57721</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="E8" s="5">
-        <v>5175402</v>
-      </c>
-      <c r="F8" s="5">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>59440</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="J8" s="5">
-        <v>619</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="N8" s="6">
-        <v>45798.047627314816</v>
-      </c>
-      <c r="O8" s="6">
-        <v>45798.048831018517</v>
-      </c>
-      <c r="P8" s="5">
-        <v>85331</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B9" s="5">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5060101</v>
-      </c>
-      <c r="F9" s="5">
-        <v>47</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>28903</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="I11" s="5">
         <v>351</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M9" s="5">
-        <v>2000</v>
-      </c>
-      <c r="N9" s="6">
-        <v>45799.966921296298</v>
-      </c>
-      <c r="O9" s="6">
-        <v>45799.974953703706</v>
-      </c>
-      <c r="P9" s="5">
-        <v>84971</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B10" s="5">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E10" s="5">
-        <v>947303</v>
-      </c>
-      <c r="F10" s="5">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5">
-        <v>59595</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J10" s="5">
-        <v>668</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M10" s="5">
-        <v>5000</v>
-      </c>
-      <c r="N10" s="6">
+      <c r="K11" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L11" s="5">
+        <v>4000</v>
+      </c>
+      <c r="M11" s="6">
         <v>45800.037453703706</v>
-      </c>
-      <c r="O10" s="6">
-        <v>45800.059282407405</v>
-      </c>
-      <c r="P10" s="5">
-        <v>9148</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B11" s="5">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5726207</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>57721</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J11" s="5">
-        <v>351</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M11" s="5">
-        <v>4000</v>
       </c>
       <c r="N11" s="6">
         <v>45800.037453703706</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
+        <v>84971</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5726208</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>26827</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I12" s="5">
+        <v>351</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L12" s="5">
+        <v>3000</v>
+      </c>
+      <c r="M12" s="6">
         <v>45800.037453703706</v>
-      </c>
-      <c r="P11" s="5">
-        <v>84971</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B12" s="5">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E12" s="5">
-        <v>5726208</v>
-      </c>
-      <c r="G12" s="5">
-        <v>5</v>
-      </c>
-      <c r="H12" s="5">
-        <v>26827</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J12" s="5">
-        <v>351</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M12" s="5">
-        <v>3000</v>
       </c>
       <c r="N12" s="6">
         <v>45800.037453703706</v>
       </c>
-      <c r="O12" s="6">
-        <v>45800.037453703706</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="O12" s="5">
         <v>84971</v>
       </c>
+      <c r="P12" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="Q12" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E13" s="5">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I13" s="5">
+        <v>714</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>45800.040972222225</v>
+      </c>
+      <c r="N13" s="6">
+        <v>45800.043749999997</v>
+      </c>
+      <c r="O13" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I14" s="5">
+        <v>714</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>45800.043761574074</v>
+      </c>
+      <c r="N14" s="6">
+        <v>45800.046539351853</v>
+      </c>
+      <c r="O14" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D15" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E15" s="5">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I15" s="5">
+        <v>714</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>45800.046550925923</v>
+      </c>
+      <c r="N15" s="6">
+        <v>45800.049328703702</v>
+      </c>
+      <c r="O15" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E16" s="5">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I16" s="5">
+        <v>714</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>45800.049340277779</v>
+      </c>
+      <c r="N16" s="6">
+        <v>45800.052118055559</v>
+      </c>
+      <c r="O16" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D17" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E17" s="5">
+        <v>20</v>
+      </c>
+      <c r="F17" s="5">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I17" s="5">
+        <v>714</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>45800.052129629628</v>
+      </c>
+      <c r="N17" s="6">
+        <v>45800.054907407408</v>
+      </c>
+      <c r="O17" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D18" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E18" s="5">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5">
+        <v>11</v>
+      </c>
+      <c r="G18" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I18" s="5">
+        <v>714</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>45800.054918981485</v>
+      </c>
+      <c r="N18" s="6">
+        <v>45800.057696759257</v>
+      </c>
+      <c r="O18" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D19" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E19" s="5">
+        <v>20</v>
+      </c>
+      <c r="F19" s="5">
+        <v>11</v>
+      </c>
+      <c r="G19" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I19" s="5">
+        <v>714</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>45800.057708333334</v>
+      </c>
+      <c r="N19" s="6">
+        <v>45800.060486111113</v>
+      </c>
+      <c r="O19" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D20" s="5">
+        <v>947303</v>
+      </c>
+      <c r="E20" s="5">
+        <v>11</v>
+      </c>
+      <c r="F20" s="5">
+        <v>6</v>
+      </c>
+      <c r="G20" s="5">
+        <v>59595</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I20" s="5">
+        <v>668</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="L20" s="5">
+        <v>5000</v>
+      </c>
+      <c r="M20" s="6">
+        <v>45800.059293981481</v>
+      </c>
+      <c r="N20" s="6">
+        <v>45800.070208333331</v>
+      </c>
+      <c r="O20" s="5">
+        <v>9148</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="Q20" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D21" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E21" s="5">
+        <v>20</v>
+      </c>
+      <c r="F21" s="5">
+        <v>11</v>
+      </c>
+      <c r="G21" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I21" s="5">
+        <v>714</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>45800.060497685183</v>
+      </c>
+      <c r="N21" s="6">
+        <v>45800.063275462962</v>
+      </c>
+      <c r="O21" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E22" s="5">
+        <v>20</v>
+      </c>
+      <c r="F22" s="5">
+        <v>11</v>
+      </c>
+      <c r="G22" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I22" s="5">
+        <v>714</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>45800.063287037039</v>
+      </c>
+      <c r="N22" s="6">
+        <v>45800.066064814811</v>
+      </c>
+      <c r="O22" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D23" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E23" s="5">
+        <v>20</v>
+      </c>
+      <c r="F23" s="5">
+        <v>11</v>
+      </c>
+      <c r="G23" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I23" s="5">
+        <v>714</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>45800.066076388888</v>
+      </c>
+      <c r="N23" s="6">
+        <v>45800.068854166668</v>
+      </c>
+      <c r="O23" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D24" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E24" s="5">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5">
+        <v>11</v>
+      </c>
+      <c r="G24" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I24" s="5">
+        <v>714</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>45800.068865740737</v>
+      </c>
+      <c r="N24" s="6">
+        <v>45800.071643518517</v>
+      </c>
+      <c r="O24" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D25" s="5">
+        <v>5060101</v>
+      </c>
+      <c r="E25" s="5">
+        <v>11</v>
+      </c>
+      <c r="F25" s="5">
+        <v>8</v>
+      </c>
+      <c r="G25" s="5">
+        <v>59736</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I25" s="5">
+        <v>351</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L25" s="5">
+        <v>6000</v>
+      </c>
+      <c r="M25" s="6">
+        <v>45800.070208333331</v>
+      </c>
+      <c r="N25" s="6">
+        <v>45800.102349537039</v>
+      </c>
+      <c r="O25" s="5">
+        <v>84971</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D26" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E26" s="5">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5">
+        <v>11</v>
+      </c>
+      <c r="G26" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I26" s="5">
+        <v>714</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>45800.071655092594</v>
+      </c>
+      <c r="N26" s="6">
+        <v>45800.074432870373</v>
+      </c>
+      <c r="O26" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D27" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E27" s="5">
+        <v>20</v>
+      </c>
+      <c r="F27" s="5">
+        <v>11</v>
+      </c>
+      <c r="G27" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I27" s="5">
+        <v>714</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>45800.074444444443</v>
+      </c>
+      <c r="N27" s="6">
+        <v>45800.077222222222</v>
+      </c>
+      <c r="O27" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D28" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E28" s="5">
+        <v>20</v>
+      </c>
+      <c r="F28" s="5">
+        <v>11</v>
+      </c>
+      <c r="G28" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I28" s="5">
+        <v>714</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>45800.077233796299</v>
+      </c>
+      <c r="N28" s="6">
+        <v>45800.080011574071</v>
+      </c>
+      <c r="O28" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D29" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E29" s="5">
+        <v>20</v>
+      </c>
+      <c r="F29" s="5">
+        <v>8</v>
+      </c>
+      <c r="G29" s="5">
+        <v>59760</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I29" s="5">
+        <v>714</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>45800.080023148148</v>
+      </c>
+      <c r="N29" s="6">
+        <v>45800.082800925928</v>
+      </c>
+      <c r="O29" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D30" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E30" s="5">
+        <v>20</v>
+      </c>
+      <c r="F30" s="5">
+        <v>10</v>
+      </c>
+      <c r="G30" s="5">
+        <v>59761</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I30" s="5">
+        <v>714</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>45800.085416666669</v>
+      </c>
+      <c r="N30" s="6">
+        <v>45800.087939814817</v>
+      </c>
+      <c r="O30" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D31" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E31" s="5">
+        <v>20</v>
+      </c>
+      <c r="F31" s="5">
+        <v>10</v>
+      </c>
+      <c r="G31" s="5">
+        <v>59761</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I31" s="5">
+        <v>714</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>45800.087951388887</v>
+      </c>
+      <c r="N31" s="6">
+        <v>45800.090474537035</v>
+      </c>
+      <c r="O31" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D32" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E32" s="5">
+        <v>20</v>
+      </c>
+      <c r="F32" s="5">
+        <v>10</v>
+      </c>
+      <c r="G32" s="5">
+        <v>59761</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I32" s="5">
+        <v>714</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>45800.090486111112</v>
+      </c>
+      <c r="N32" s="6">
+        <v>45800.093009259261</v>
+      </c>
+      <c r="O32" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D33" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E33" s="5">
+        <v>20</v>
+      </c>
+      <c r="F33" s="5">
+        <v>10</v>
+      </c>
+      <c r="G33" s="5">
+        <v>59761</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I33" s="5">
+        <v>714</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>45800.09302083333</v>
+      </c>
+      <c r="N33" s="6">
+        <v>45800.095543981479</v>
+      </c>
+      <c r="O33" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D34" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E34" s="5">
+        <v>20</v>
+      </c>
+      <c r="F34" s="5">
+        <v>10</v>
+      </c>
+      <c r="G34" s="5">
+        <v>59761</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I34" s="5">
+        <v>714</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>45800.095555555556</v>
+      </c>
+      <c r="N34" s="6">
+        <v>45800.098078703704</v>
+      </c>
+      <c r="O34" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D35" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E35" s="5">
+        <v>20</v>
+      </c>
+      <c r="F35" s="5">
+        <v>10</v>
+      </c>
+      <c r="G35" s="5">
+        <v>59761</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I35" s="5">
+        <v>714</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>45800.098090277781</v>
+      </c>
+      <c r="N35" s="6">
+        <v>45800.100613425922</v>
+      </c>
+      <c r="O35" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D36" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E36" s="5">
+        <v>20</v>
+      </c>
+      <c r="F36" s="5">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5">
+        <v>59761</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I36" s="5">
+        <v>714</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>45800.100624999999</v>
+      </c>
+      <c r="N36" s="6">
+        <v>45800.103148148148</v>
+      </c>
+      <c r="O36" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D37" s="5">
+        <v>5060101</v>
+      </c>
+      <c r="E37" s="5">
+        <v>11</v>
+      </c>
+      <c r="F37" s="5">
+        <v>8</v>
+      </c>
+      <c r="G37" s="5">
+        <v>59736</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I37" s="5">
+        <v>351</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L37" s="5">
+        <v>6000</v>
+      </c>
+      <c r="M37" s="6">
+        <v>45800.102361111109</v>
+      </c>
+      <c r="N37" s="6">
+        <v>45800.134502314817</v>
+      </c>
+      <c r="O37" s="5">
+        <v>84971</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D38" s="5">
+        <v>8076701</v>
+      </c>
+      <c r="E38" s="5">
+        <v>20</v>
+      </c>
+      <c r="F38" s="5">
+        <v>10</v>
+      </c>
+      <c r="G38" s="5">
+        <v>59761</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I38" s="5">
+        <v>714</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>45800.103159722225</v>
+      </c>
+      <c r="N38" s="6">
+        <v>45800.105682870373</v>
+      </c>
+      <c r="O38" s="5">
+        <v>85426</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D39" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E39" s="5">
+        <v>20</v>
+      </c>
+      <c r="F39" s="5">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E13" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="G39" s="5">
+        <v>59127</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I39" s="5">
+        <v>351</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>45800.113194444442</v>
+      </c>
+      <c r="N39" s="6">
+        <v>45800.118958333333</v>
+      </c>
+      <c r="O39" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D40" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E40" s="5">
         <v>20</v>
       </c>
-      <c r="G13" s="5">
+      <c r="F40" s="5">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5">
+        <v>59127</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I40" s="5">
+        <v>351</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>45800.118969907409</v>
+      </c>
+      <c r="N40" s="6">
+        <v>45800.1247337963</v>
+      </c>
+      <c r="O40" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D41" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E41" s="5">
+        <v>20</v>
+      </c>
+      <c r="F41" s="5">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5">
+        <v>59127</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I41" s="5">
+        <v>351</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>45800.124745370369</v>
+      </c>
+      <c r="N41" s="6">
+        <v>45800.130509259259</v>
+      </c>
+      <c r="O41" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D42" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E42" s="5">
+        <v>20</v>
+      </c>
+      <c r="F42" s="5">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5">
+        <v>59127</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I42" s="5">
+        <v>351</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>45800.130520833336</v>
+      </c>
+      <c r="N42" s="6">
+        <v>45800.136284722219</v>
+      </c>
+      <c r="O42" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5060101</v>
+      </c>
+      <c r="E43" s="5">
         <v>11</v>
       </c>
-      <c r="H13" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J13" s="5">
-        <v>714</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
-        <v>45800.040972222225</v>
-      </c>
-      <c r="O13" s="6">
-        <v>45800.043749999997</v>
-      </c>
-      <c r="P13" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B14" s="5">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E14" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F14" s="5">
-        <v>20</v>
-      </c>
-      <c r="G14" s="5">
-        <v>11</v>
-      </c>
-      <c r="H14" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J14" s="5">
-        <v>714</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>45800.043761574074</v>
-      </c>
-      <c r="O14" s="6">
-        <v>45800.046539351853</v>
-      </c>
-      <c r="P14" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B15" s="5">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E15" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F15" s="5">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5">
-        <v>11</v>
-      </c>
-      <c r="H15" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J15" s="5">
-        <v>714</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>45800.046550925923</v>
-      </c>
-      <c r="O15" s="6">
-        <v>45800.049328703702</v>
-      </c>
-      <c r="P15" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B16" s="5">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E16" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F16" s="5">
-        <v>20</v>
-      </c>
-      <c r="G16" s="5">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J16" s="5">
-        <v>714</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>45800.049340277779</v>
-      </c>
-      <c r="O16" s="6">
-        <v>45800.052118055559</v>
-      </c>
-      <c r="P16" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B17" s="5">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E17" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F17" s="5">
-        <v>20</v>
-      </c>
-      <c r="G17" s="5">
-        <v>11</v>
-      </c>
-      <c r="H17" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J17" s="5">
-        <v>714</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>45800.052129629628</v>
-      </c>
-      <c r="O17" s="6">
-        <v>45800.054907407408</v>
-      </c>
-      <c r="P17" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B18" s="5">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E18" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F18" s="5">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5">
-        <v>11</v>
-      </c>
-      <c r="H18" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J18" s="5">
-        <v>714</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>45800.054918981485</v>
-      </c>
-      <c r="O18" s="6">
-        <v>45800.057696759257</v>
-      </c>
-      <c r="P18" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B19" s="5">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E19" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F19" s="5">
-        <v>20</v>
-      </c>
-      <c r="G19" s="5">
-        <v>11</v>
-      </c>
-      <c r="H19" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J19" s="5">
-        <v>714</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <v>45800.057708333334</v>
-      </c>
-      <c r="O19" s="6">
-        <v>45800.060486111113</v>
-      </c>
-      <c r="P19" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B20" s="5">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E20" s="5">
-        <v>947303</v>
-      </c>
-      <c r="F20" s="5">
-        <v>11</v>
-      </c>
-      <c r="G20" s="5">
-        <v>6</v>
-      </c>
-      <c r="H20" s="5">
-        <v>59595</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J20" s="5">
-        <v>668</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M20" s="5">
-        <v>5000</v>
-      </c>
-      <c r="N20" s="6">
-        <v>45800.059293981481</v>
-      </c>
-      <c r="O20" s="6">
-        <v>45800.070208333331</v>
-      </c>
-      <c r="P20" s="5">
-        <v>9148</v>
-      </c>
-      <c r="Q20" s="5" t="s">
+      <c r="F43" s="5">
+        <v>2</v>
+      </c>
+      <c r="G43" s="5">
+        <v>59736</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I43" s="5">
+        <v>351</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L43" s="5">
+        <v>6000</v>
+      </c>
+      <c r="M43" s="6">
+        <v>45800.134513888886</v>
+      </c>
+      <c r="N43" s="6">
+        <v>45800.142523148148</v>
+      </c>
+      <c r="O43" s="5">
+        <v>84971</v>
+      </c>
+      <c r="P43" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="R20" s="5" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B21" s="5">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E21" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F21" s="5">
-        <v>20</v>
-      </c>
-      <c r="G21" s="5">
-        <v>11</v>
-      </c>
-      <c r="H21" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J21" s="5">
-        <v>714</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>45800.060497685183</v>
-      </c>
-      <c r="O21" s="6">
-        <v>45800.063275462962</v>
-      </c>
-      <c r="P21" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B22" s="5">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E22" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F22" s="5">
-        <v>20</v>
-      </c>
-      <c r="G22" s="5">
-        <v>11</v>
-      </c>
-      <c r="H22" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J22" s="5">
-        <v>714</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>45800.063287037039</v>
-      </c>
-      <c r="O22" s="6">
-        <v>45800.066064814811</v>
-      </c>
-      <c r="P22" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B23" s="5">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E23" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F23" s="5">
-        <v>20</v>
-      </c>
-      <c r="G23" s="5">
-        <v>11</v>
-      </c>
-      <c r="H23" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J23" s="5">
-        <v>714</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M23" s="5">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>45800.066076388888</v>
-      </c>
-      <c r="O23" s="6">
-        <v>45800.068854166668</v>
-      </c>
-      <c r="P23" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B24" s="5">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E24" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F24" s="5">
-        <v>20</v>
-      </c>
-      <c r="G24" s="5">
-        <v>11</v>
-      </c>
-      <c r="H24" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J24" s="5">
-        <v>714</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M24" s="5">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
-        <v>45800.068865740737</v>
-      </c>
-      <c r="O24" s="6">
-        <v>45800.071643518517</v>
-      </c>
-      <c r="P24" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B25" s="5">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E25" s="5">
-        <v>5060101</v>
-      </c>
-      <c r="F25" s="5">
-        <v>11</v>
-      </c>
-      <c r="G25" s="5">
-        <v>8</v>
-      </c>
-      <c r="H25" s="5">
-        <v>59736</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J25" s="5">
-        <v>351</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M25" s="5">
-        <v>6000</v>
-      </c>
-      <c r="N25" s="6">
-        <v>45800.070208333331</v>
-      </c>
-      <c r="O25" s="6">
-        <v>45800.102349537039</v>
-      </c>
-      <c r="P25" s="5">
-        <v>84971</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B26" s="5">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E26" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F26" s="5">
-        <v>20</v>
-      </c>
-      <c r="G26" s="5">
-        <v>11</v>
-      </c>
-      <c r="H26" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J26" s="5">
-        <v>714</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M26" s="5">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>45800.071655092594</v>
-      </c>
-      <c r="O26" s="6">
-        <v>45800.074432870373</v>
-      </c>
-      <c r="P26" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B27" s="5">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E27" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F27" s="5">
-        <v>20</v>
-      </c>
-      <c r="G27" s="5">
-        <v>11</v>
-      </c>
-      <c r="H27" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J27" s="5">
-        <v>714</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>45800.074444444443</v>
-      </c>
-      <c r="O27" s="6">
-        <v>45800.077222222222</v>
-      </c>
-      <c r="P27" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B28" s="5">
-        <v>27</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E28" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F28" s="5">
-        <v>20</v>
-      </c>
-      <c r="G28" s="5">
-        <v>11</v>
-      </c>
-      <c r="H28" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J28" s="5">
-        <v>714</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M28" s="5">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6">
-        <v>45800.077233796299</v>
-      </c>
-      <c r="O28" s="6">
-        <v>45800.080011574071</v>
-      </c>
-      <c r="P28" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B29" s="5">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E29" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F29" s="5">
-        <v>20</v>
-      </c>
-      <c r="G29" s="5">
-        <v>8</v>
-      </c>
-      <c r="H29" s="5">
-        <v>59760</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J29" s="5">
-        <v>714</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M29" s="5">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <v>45800.080023148148</v>
-      </c>
-      <c r="O29" s="6">
-        <v>45800.082800925928</v>
-      </c>
-      <c r="P29" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B30" s="5">
-        <v>29</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E30" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F30" s="5">
-        <v>20</v>
-      </c>
-      <c r="G30" s="5">
-        <v>10</v>
-      </c>
-      <c r="H30" s="5">
-        <v>59761</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J30" s="5">
-        <v>714</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M30" s="5">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <v>45800.085416666669</v>
-      </c>
-      <c r="O30" s="6">
-        <v>45800.087939814817</v>
-      </c>
-      <c r="P30" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B31" s="5">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E31" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F31" s="5">
-        <v>20</v>
-      </c>
-      <c r="G31" s="5">
-        <v>10</v>
-      </c>
-      <c r="H31" s="5">
-        <v>59761</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J31" s="5">
-        <v>714</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6">
-        <v>45800.087951388887</v>
-      </c>
-      <c r="O31" s="6">
-        <v>45800.090474537035</v>
-      </c>
-      <c r="P31" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B32" s="5">
-        <v>31</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E32" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F32" s="5">
-        <v>20</v>
-      </c>
-      <c r="G32" s="5">
-        <v>10</v>
-      </c>
-      <c r="H32" s="5">
-        <v>59761</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J32" s="5">
-        <v>714</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M32" s="5">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>45800.090486111112</v>
-      </c>
-      <c r="O32" s="6">
-        <v>45800.093009259261</v>
-      </c>
-      <c r="P32" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B33" s="5">
-        <v>32</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E33" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F33" s="5">
-        <v>20</v>
-      </c>
-      <c r="G33" s="5">
-        <v>10</v>
-      </c>
-      <c r="H33" s="5">
-        <v>59761</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J33" s="5">
-        <v>714</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M33" s="5">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6">
-        <v>45800.09302083333</v>
-      </c>
-      <c r="O33" s="6">
-        <v>45800.095543981479</v>
-      </c>
-      <c r="P33" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B34" s="5">
-        <v>33</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E34" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F34" s="5">
-        <v>20</v>
-      </c>
-      <c r="G34" s="5">
-        <v>10</v>
-      </c>
-      <c r="H34" s="5">
-        <v>59761</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J34" s="5">
-        <v>714</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M34" s="5">
-        <v>0</v>
-      </c>
-      <c r="N34" s="6">
-        <v>45800.095555555556</v>
-      </c>
-      <c r="O34" s="6">
-        <v>45800.098078703704</v>
-      </c>
-      <c r="P34" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B35" s="5">
-        <v>34</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E35" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F35" s="5">
-        <v>20</v>
-      </c>
-      <c r="G35" s="5">
-        <v>10</v>
-      </c>
-      <c r="H35" s="5">
-        <v>59761</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J35" s="5">
-        <v>714</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M35" s="5">
-        <v>0</v>
-      </c>
-      <c r="N35" s="6">
-        <v>45800.098090277781</v>
-      </c>
-      <c r="O35" s="6">
-        <v>45800.100613425922</v>
-      </c>
-      <c r="P35" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B36" s="5">
-        <v>35</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E36" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F36" s="5">
-        <v>20</v>
-      </c>
-      <c r="G36" s="5">
-        <v>10</v>
-      </c>
-      <c r="H36" s="5">
-        <v>59761</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J36" s="5">
-        <v>714</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6">
-        <v>45800.100624999999</v>
-      </c>
-      <c r="O36" s="6">
-        <v>45800.103148148148</v>
-      </c>
-      <c r="P36" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B37" s="5">
-        <v>36</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E37" s="5">
-        <v>5060101</v>
-      </c>
-      <c r="F37" s="5">
-        <v>11</v>
-      </c>
-      <c r="G37" s="5">
-        <v>8</v>
-      </c>
-      <c r="H37" s="5">
-        <v>59736</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J37" s="5">
-        <v>351</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M37" s="5">
-        <v>6000</v>
-      </c>
-      <c r="N37" s="6">
-        <v>45800.102361111109</v>
-      </c>
-      <c r="O37" s="6">
-        <v>45800.134502314817</v>
-      </c>
-      <c r="P37" s="5">
-        <v>84971</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B38" s="5">
-        <v>37</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E38" s="5">
-        <v>8076701</v>
-      </c>
-      <c r="F38" s="5">
-        <v>20</v>
-      </c>
-      <c r="G38" s="5">
-        <v>10</v>
-      </c>
-      <c r="H38" s="5">
-        <v>59761</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J38" s="5">
-        <v>714</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M38" s="5">
-        <v>0</v>
-      </c>
-      <c r="N38" s="6">
-        <v>45800.103159722225</v>
-      </c>
-      <c r="O38" s="6">
-        <v>45800.105682870373</v>
-      </c>
-      <c r="P38" s="5">
-        <v>85426</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B39" s="5">
-        <v>38</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E39" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F39" s="5">
-        <v>20</v>
-      </c>
-      <c r="G39" s="5">
-        <v>12</v>
-      </c>
-      <c r="H39" s="5">
-        <v>59127</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J39" s="5">
-        <v>351</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0</v>
-      </c>
-      <c r="N39" s="6">
-        <v>45800.113194444442</v>
-      </c>
-      <c r="O39" s="6">
-        <v>45800.118958333333</v>
-      </c>
-      <c r="P39" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B40" s="5">
-        <v>39</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E40" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F40" s="5">
-        <v>20</v>
-      </c>
-      <c r="G40" s="5">
-        <v>12</v>
-      </c>
-      <c r="H40" s="5">
-        <v>59127</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J40" s="5">
-        <v>351</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M40" s="5">
-        <v>0</v>
-      </c>
-      <c r="N40" s="6">
-        <v>45800.118969907409</v>
-      </c>
-      <c r="O40" s="6">
-        <v>45800.1247337963</v>
-      </c>
-      <c r="P40" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B41" s="5">
-        <v>40</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="Q43" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>1069</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E41" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F41" s="5">
-        <v>20</v>
-      </c>
-      <c r="G41" s="5">
-        <v>12</v>
-      </c>
-      <c r="H41" s="5">
-        <v>59127</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J41" s="5">
-        <v>351</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M41" s="5">
-        <v>0</v>
-      </c>
-      <c r="N41" s="6">
-        <v>45800.124745370369</v>
-      </c>
-      <c r="O41" s="6">
-        <v>45800.130509259259</v>
-      </c>
-      <c r="P41" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B42" s="5">
-        <v>41</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E42" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F42" s="5">
-        <v>20</v>
-      </c>
-      <c r="G42" s="5">
-        <v>12</v>
-      </c>
-      <c r="H42" s="5">
-        <v>59127</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J42" s="5">
-        <v>351</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M42" s="5">
-        <v>0</v>
-      </c>
-      <c r="N42" s="6">
-        <v>45800.130520833336</v>
-      </c>
-      <c r="O42" s="6">
-        <v>45800.136284722219</v>
-      </c>
-      <c r="P42" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B43" s="5">
-        <v>42</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E43" s="5">
-        <v>5060101</v>
-      </c>
-      <c r="F43" s="5">
-        <v>11</v>
-      </c>
-      <c r="G43" s="5">
-        <v>2</v>
-      </c>
-      <c r="H43" s="5">
-        <v>59736</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J43" s="5">
-        <v>351</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M43" s="5">
-        <v>6000</v>
-      </c>
-      <c r="N43" s="6">
-        <v>45800.134513888886</v>
-      </c>
-      <c r="O43" s="6">
-        <v>45800.142523148148</v>
-      </c>
-      <c r="P43" s="5">
-        <v>84971</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B44" s="5">
-        <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>1072</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E44" s="5">
+        <v>20</v>
+      </c>
+      <c r="F44" s="5">
+        <v>4</v>
+      </c>
+      <c r="G44" s="5">
+        <v>59692</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I44" s="5">
+        <v>351</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>45800.136284722219</v>
+      </c>
+      <c r="N44" s="6">
+        <v>45800.138206018521</v>
+      </c>
+      <c r="O44" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D45" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E45" s="5">
+        <v>20</v>
+      </c>
+      <c r="F45" s="5">
+        <v>4</v>
+      </c>
+      <c r="G45" s="5">
+        <v>59692</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I45" s="5">
+        <v>351</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>45800.13821759259</v>
+      </c>
+      <c r="N45" s="6">
+        <v>45800.140138888892</v>
+      </c>
+      <c r="O45" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>1075</v>
       </c>
-      <c r="E44" s="5">
+      <c r="C46" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D46" s="5">
         <v>5096905</v>
       </c>
-      <c r="F44" s="5">
+      <c r="E46" s="5">
         <v>20</v>
       </c>
-      <c r="G44" s="5">
+      <c r="F46" s="5">
         <v>4</v>
       </c>
-      <c r="H44" s="5">
+      <c r="G46" s="5">
         <v>59692</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J44" s="5">
+      <c r="H46" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I46" s="5">
         <v>351</v>
       </c>
-      <c r="L44" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0</v>
-      </c>
-      <c r="N44" s="6">
-        <v>45800.136284722219</v>
-      </c>
-      <c r="O44" s="6">
-        <v>45800.138206018521</v>
-      </c>
-      <c r="P44" s="5">
+      <c r="K46" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>45800.140150462961</v>
+      </c>
+      <c r="N46" s="6">
+        <v>45800.142071759263</v>
+      </c>
+      <c r="O46" s="5">
         <v>86217</v>
       </c>
-      <c r="Q44" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R44" s="5" t="s">
+      <c r="P46" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q46" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B45" s="5">
-        <v>44</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D45" s="5" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="E45" s="5">
+      <c r="C47" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D47" s="5">
         <v>5096905</v>
       </c>
-      <c r="F45" s="5">
+      <c r="E47" s="5">
         <v>20</v>
       </c>
-      <c r="G45" s="5">
+      <c r="F47" s="5">
         <v>4</v>
       </c>
-      <c r="H45" s="5">
+      <c r="G47" s="5">
         <v>59692</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J45" s="5">
+      <c r="H47" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I47" s="5">
         <v>351</v>
       </c>
-      <c r="L45" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M45" s="5">
-        <v>0</v>
-      </c>
-      <c r="N45" s="6">
-        <v>45800.13821759259</v>
-      </c>
-      <c r="O45" s="6">
-        <v>45800.140138888892</v>
-      </c>
-      <c r="P45" s="5">
+      <c r="K47" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>45800.142083333332</v>
+      </c>
+      <c r="N47" s="6">
+        <v>45800.144004629627</v>
+      </c>
+      <c r="O47" s="5">
         <v>86217</v>
       </c>
-      <c r="Q45" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R45" s="5" t="s">
+      <c r="P47" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q47" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B46" s="5">
-        <v>45</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D46" s="5" t="s">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="E46" s="5">
+      <c r="C48" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D48" s="5">
         <v>5096905</v>
       </c>
-      <c r="F46" s="5">
+      <c r="E48" s="5">
         <v>20</v>
       </c>
-      <c r="G46" s="5">
+      <c r="F48" s="5">
         <v>4</v>
       </c>
-      <c r="H46" s="5">
+      <c r="G48" s="5">
         <v>59692</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J46" s="5">
+      <c r="H48" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I48" s="5">
         <v>351</v>
       </c>
-      <c r="L46" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M46" s="5">
-        <v>0</v>
-      </c>
-      <c r="N46" s="6">
-        <v>45800.140150462961</v>
-      </c>
-      <c r="O46" s="6">
-        <v>45800.142071759263</v>
-      </c>
-      <c r="P46" s="5">
+      <c r="K48" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>45800.144016203703</v>
+      </c>
+      <c r="N48" s="6">
+        <v>45800.145937499998</v>
+      </c>
+      <c r="O48" s="5">
         <v>86217</v>
       </c>
-      <c r="Q46" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R46" s="5" t="s">
+      <c r="P48" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q48" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B47" s="5">
-        <v>46</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D47" s="5" t="s">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>1081</v>
       </c>
-      <c r="E47" s="5">
+      <c r="C49" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D49" s="5">
         <v>5096905</v>
       </c>
-      <c r="F47" s="5">
+      <c r="E49" s="5">
         <v>20</v>
       </c>
-      <c r="G47" s="5">
+      <c r="F49" s="5">
         <v>4</v>
       </c>
-      <c r="H47" s="5">
+      <c r="G49" s="5">
         <v>59692</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J47" s="5">
+      <c r="H49" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I49" s="5">
         <v>351</v>
       </c>
-      <c r="L47" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M47" s="5">
-        <v>0</v>
-      </c>
-      <c r="N47" s="6">
-        <v>45800.142083333332</v>
-      </c>
-      <c r="O47" s="6">
-        <v>45800.144004629627</v>
-      </c>
-      <c r="P47" s="5">
+      <c r="K49" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>45800.145949074074</v>
+      </c>
+      <c r="N49" s="6">
+        <v>45800.147870370369</v>
+      </c>
+      <c r="O49" s="5">
         <v>86217</v>
       </c>
-      <c r="Q47" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R47" s="5" t="s">
+      <c r="P49" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q49" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B48" s="5">
-        <v>47</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D48" s="5" t="s">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="E48" s="5">
+      <c r="C50" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D50" s="5">
         <v>5096905</v>
       </c>
-      <c r="F48" s="5">
+      <c r="E50" s="5">
         <v>20</v>
       </c>
-      <c r="G48" s="5">
+      <c r="F50" s="5">
         <v>4</v>
       </c>
-      <c r="H48" s="5">
+      <c r="G50" s="5">
         <v>59692</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J48" s="5">
+      <c r="H50" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I50" s="5">
         <v>351</v>
       </c>
-      <c r="L48" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M48" s="5">
-        <v>0</v>
-      </c>
-      <c r="N48" s="6">
-        <v>45800.144016203703</v>
-      </c>
-      <c r="O48" s="6">
-        <v>45800.145937499998</v>
-      </c>
-      <c r="P48" s="5">
+      <c r="K50" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>45800.147881944446</v>
+      </c>
+      <c r="N50" s="6">
+        <v>45800.14980324074</v>
+      </c>
+      <c r="O50" s="5">
         <v>86217</v>
       </c>
-      <c r="Q48" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R48" s="5" t="s">
+      <c r="P50" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q50" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B49" s="5">
-        <v>48</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D49" s="5" t="s">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="E49" s="5">
+      <c r="C51" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D51" s="5">
         <v>5096905</v>
       </c>
-      <c r="F49" s="5">
+      <c r="E51" s="5">
         <v>20</v>
       </c>
-      <c r="G49" s="5">
+      <c r="F51" s="5">
         <v>4</v>
       </c>
-      <c r="H49" s="5">
+      <c r="G51" s="5">
         <v>59692</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J49" s="5">
+      <c r="H51" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I51" s="5">
         <v>351</v>
       </c>
-      <c r="L49" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M49" s="5">
-        <v>0</v>
-      </c>
-      <c r="N49" s="6">
-        <v>45800.145949074074</v>
-      </c>
-      <c r="O49" s="6">
-        <v>45800.147870370369</v>
-      </c>
-      <c r="P49" s="5">
+      <c r="K51" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>45800.149814814817</v>
+      </c>
+      <c r="N51" s="6">
+        <v>45800.151736111111</v>
+      </c>
+      <c r="O51" s="5">
         <v>86217</v>
       </c>
-      <c r="Q49" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R49" s="5" t="s">
+      <c r="P51" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q51" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B50" s="5">
-        <v>49</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D50" s="5" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="E50" s="5">
+      <c r="C52" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D52" s="5">
         <v>5096905</v>
       </c>
-      <c r="F50" s="5">
+      <c r="E52" s="5">
         <v>20</v>
       </c>
-      <c r="G50" s="5">
+      <c r="F52" s="5">
         <v>4</v>
       </c>
-      <c r="H50" s="5">
+      <c r="G52" s="5">
         <v>59692</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J50" s="5">
+      <c r="H52" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I52" s="5">
         <v>351</v>
       </c>
-      <c r="L50" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M50" s="5">
-        <v>0</v>
-      </c>
-      <c r="N50" s="6">
-        <v>45800.147881944446</v>
-      </c>
-      <c r="O50" s="6">
-        <v>45800.14980324074</v>
-      </c>
-      <c r="P50" s="5">
+      <c r="K52" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>45800.151747685188</v>
+      </c>
+      <c r="N52" s="6">
+        <v>45800.153668981482</v>
+      </c>
+      <c r="O52" s="5">
         <v>86217</v>
       </c>
-      <c r="Q50" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R50" s="5" t="s">
+      <c r="P52" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q52" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B51" s="5">
-        <v>50</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D51" s="5" t="s">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="E51" s="5">
+      <c r="C53" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D53" s="5">
         <v>5096905</v>
       </c>
-      <c r="F51" s="5">
+      <c r="E53" s="5">
         <v>20</v>
       </c>
-      <c r="G51" s="5">
+      <c r="F53" s="5">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5">
+        <v>59693</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I53" s="5">
+        <v>351</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <v>45800.183182870373</v>
+      </c>
+      <c r="N53" s="6">
+        <v>45800.188946759263</v>
+      </c>
+      <c r="O53" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D54" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E54" s="5">
+        <v>20</v>
+      </c>
+      <c r="F54" s="5">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5">
+        <v>59693</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I54" s="5">
+        <v>351</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>45800.188958333332</v>
+      </c>
+      <c r="N54" s="6">
+        <v>45800.194722222222</v>
+      </c>
+      <c r="O54" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D55" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E55" s="5">
+        <v>20</v>
+      </c>
+      <c r="F55" s="5">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5">
+        <v>59693</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I55" s="5">
+        <v>351</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>45800.194733796299</v>
+      </c>
+      <c r="N55" s="6">
+        <v>45800.200497685182</v>
+      </c>
+      <c r="O55" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D56" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E56" s="5">
+        <v>20</v>
+      </c>
+      <c r="F56" s="5">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5">
+        <v>59693</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I56" s="5">
+        <v>351</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <v>45800.200509259259</v>
+      </c>
+      <c r="N56" s="6">
+        <v>45800.206273148149</v>
+      </c>
+      <c r="O56" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D57" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E57" s="5">
+        <v>20</v>
+      </c>
+      <c r="F57" s="5">
+        <v>7</v>
+      </c>
+      <c r="G57" s="5">
+        <v>59693</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I57" s="5">
+        <v>351</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6">
+        <v>45800.206284722219</v>
+      </c>
+      <c r="N57" s="6">
+        <v>45800.212048611109</v>
+      </c>
+      <c r="O57" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D58" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E58" s="5">
+        <v>20</v>
+      </c>
+      <c r="F58" s="5">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5">
+        <v>59694</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I58" s="5">
+        <v>351</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="6">
+        <v>45800.222916666666</v>
+      </c>
+      <c r="N58" s="6">
+        <v>45800.228680555556</v>
+      </c>
+      <c r="O58" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D59" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E59" s="5">
+        <v>20</v>
+      </c>
+      <c r="F59" s="5">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5">
+        <v>59694</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I59" s="5">
+        <v>351</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
+      <c r="M59" s="6">
+        <v>45800.228692129633</v>
+      </c>
+      <c r="N59" s="6">
+        <v>45800.234456018516</v>
+      </c>
+      <c r="O59" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D60" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E60" s="5">
+        <v>20</v>
+      </c>
+      <c r="F60" s="5">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5">
+        <v>59694</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I60" s="5">
+        <v>351</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="6">
+        <v>45800.234467592592</v>
+      </c>
+      <c r="N60" s="6">
+        <v>45800.240231481483</v>
+      </c>
+      <c r="O60" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D61" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E61" s="5">
+        <v>20</v>
+      </c>
+      <c r="F61" s="5">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5">
+        <v>59694</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I61" s="5">
+        <v>351</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="6">
+        <v>45800.240243055552</v>
+      </c>
+      <c r="N61" s="6">
+        <v>45800.246006944442</v>
+      </c>
+      <c r="O61" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D62" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E62" s="5">
+        <v>20</v>
+      </c>
+      <c r="F62" s="5">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5">
+        <v>59694</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I62" s="5">
+        <v>351</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="6">
+        <v>45800.246018518519</v>
+      </c>
+      <c r="N62" s="6">
+        <v>45800.251782407409</v>
+      </c>
+      <c r="O62" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D63" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E63" s="5">
+        <v>20</v>
+      </c>
+      <c r="F63" s="5">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5">
+        <v>59694</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I63" s="5">
+        <v>351</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6">
+        <v>45800.251793981479</v>
+      </c>
+      <c r="N63" s="6">
+        <v>45800.257557870369</v>
+      </c>
+      <c r="O63" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D64" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E64" s="5">
+        <v>20</v>
+      </c>
+      <c r="F64" s="5">
+        <v>12</v>
+      </c>
+      <c r="G64" s="5">
+        <v>59695</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I64" s="5">
+        <v>351</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="6">
+        <v>45800.275000000001</v>
+      </c>
+      <c r="N64" s="6">
+        <v>45800.280763888892</v>
+      </c>
+      <c r="O64" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D65" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E65" s="5">
+        <v>20</v>
+      </c>
+      <c r="F65" s="5">
+        <v>12</v>
+      </c>
+      <c r="G65" s="5">
+        <v>59695</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I65" s="5">
+        <v>351</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="6">
+        <v>45800.280775462961</v>
+      </c>
+      <c r="N65" s="6">
+        <v>45800.286539351851</v>
+      </c>
+      <c r="O65" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D66" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E66" s="5">
+        <v>20</v>
+      </c>
+      <c r="F66" s="5">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5">
+        <v>59695</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I66" s="5">
+        <v>351</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
+      <c r="M66" s="6">
+        <v>45800.286550925928</v>
+      </c>
+      <c r="N66" s="6">
+        <v>45800.292314814818</v>
+      </c>
+      <c r="O66" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D67" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E67" s="5">
+        <v>20</v>
+      </c>
+      <c r="F67" s="5">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5">
+        <v>59695</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I67" s="5">
+        <v>351</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="6">
+        <v>45800.292326388888</v>
+      </c>
+      <c r="N67" s="6">
+        <v>45800.298090277778</v>
+      </c>
+      <c r="O67" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D68" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E68" s="5">
+        <v>20</v>
+      </c>
+      <c r="F68" s="5">
+        <v>12</v>
+      </c>
+      <c r="G68" s="5">
+        <v>59695</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I68" s="5">
+        <v>351</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+      <c r="M68" s="6">
+        <v>45800.298101851855</v>
+      </c>
+      <c r="N68" s="6">
+        <v>45800.303865740738</v>
+      </c>
+      <c r="O68" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D69" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E69" s="5">
+        <v>20</v>
+      </c>
+      <c r="F69" s="5">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5">
+        <v>59695</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I69" s="5">
+        <v>351</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0</v>
+      </c>
+      <c r="M69" s="6">
+        <v>45800.303877314815</v>
+      </c>
+      <c r="N69" s="6">
+        <v>45800.309641203705</v>
+      </c>
+      <c r="O69" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D70" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E70" s="5">
+        <v>20</v>
+      </c>
+      <c r="F70" s="5">
+        <v>8</v>
+      </c>
+      <c r="G70" s="5">
+        <v>59695</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I70" s="5">
+        <v>351</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
+      <c r="M70" s="6">
+        <v>45800.309652777774</v>
+      </c>
+      <c r="N70" s="6">
+        <v>45800.315416666665</v>
+      </c>
+      <c r="O70" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D71" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E71" s="5">
+        <v>20</v>
+      </c>
+      <c r="F71" s="5">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5">
+        <v>59696</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I71" s="5">
+        <v>351</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0</v>
+      </c>
+      <c r="M71" s="6">
+        <v>45800.327777777777</v>
+      </c>
+      <c r="N71" s="6">
+        <v>45800.333541666667</v>
+      </c>
+      <c r="O71" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D72" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E72" s="5">
+        <v>20</v>
+      </c>
+      <c r="F72" s="5">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5">
+        <v>59696</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I72" s="5">
+        <v>351</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L72" s="5">
+        <v>0</v>
+      </c>
+      <c r="M72" s="6">
+        <v>45800.333553240744</v>
+      </c>
+      <c r="N72" s="6">
+        <v>45800.339317129627</v>
+      </c>
+      <c r="O72" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D73" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E73" s="5">
+        <v>20</v>
+      </c>
+      <c r="F73" s="5">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5">
+        <v>59696</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I73" s="5">
+        <v>351</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0</v>
+      </c>
+      <c r="M73" s="6">
+        <v>45800.339328703703</v>
+      </c>
+      <c r="N73" s="6">
+        <v>45800.345092592594</v>
+      </c>
+      <c r="O73" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D74" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E74" s="5">
+        <v>20</v>
+      </c>
+      <c r="F74" s="5">
+        <v>12</v>
+      </c>
+      <c r="G74" s="5">
+        <v>59696</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I74" s="5">
+        <v>351</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L74" s="5">
+        <v>0</v>
+      </c>
+      <c r="M74" s="6">
+        <v>45800.345104166663</v>
+      </c>
+      <c r="N74" s="6">
+        <v>45800.350868055553</v>
+      </c>
+      <c r="O74" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D75" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E75" s="5">
+        <v>20</v>
+      </c>
+      <c r="F75" s="5">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5">
+        <v>59696</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I75" s="5">
+        <v>351</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L75" s="5">
+        <v>0</v>
+      </c>
+      <c r="M75" s="6">
+        <v>45800.35087962963</v>
+      </c>
+      <c r="N75" s="6">
+        <v>45800.35664351852</v>
+      </c>
+      <c r="O75" s="5">
+        <v>86217</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D76" s="5">
+        <v>5096905</v>
+      </c>
+      <c r="E76" s="5">
+        <v>20</v>
+      </c>
+      <c r="F76" s="5">
         <v>4</v>
       </c>
-      <c r="H51" s="5">
-        <v>59692</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J51" s="5">
+      <c r="G76" s="5">
+        <v>59696</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I76" s="5">
         <v>351</v>
       </c>
-      <c r="L51" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M51" s="5">
-        <v>0</v>
-      </c>
-      <c r="N51" s="6">
-        <v>45800.149814814817</v>
-      </c>
-      <c r="O51" s="6">
-        <v>45800.151736111111</v>
-      </c>
-      <c r="P51" s="5">
+      <c r="K76" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L76" s="5">
+        <v>0</v>
+      </c>
+      <c r="M76" s="6">
+        <v>45800.35665509259</v>
+      </c>
+      <c r="N76" s="6">
+        <v>45800.358541666668</v>
+      </c>
+      <c r="O76" s="5">
         <v>86217</v>
       </c>
-      <c r="Q51" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R51" s="5" t="s">
+      <c r="P76" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q76" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B52" s="5">
-        <v>51</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E52" s="5">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D77" s="5">
         <v>5096905</v>
       </c>
-      <c r="F52" s="5">
+      <c r="E77" s="5">
         <v>20</v>
       </c>
-      <c r="G52" s="5">
-        <v>4</v>
-      </c>
-      <c r="H52" s="5">
-        <v>59692</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J52" s="5">
+      <c r="F77" s="5">
+        <v>9</v>
+      </c>
+      <c r="G77" s="5">
+        <v>59130</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I77" s="5">
         <v>351</v>
       </c>
-      <c r="L52" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M52" s="5">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6">
-        <v>45800.151747685188</v>
-      </c>
-      <c r="O52" s="6">
-        <v>45800.153668981482</v>
-      </c>
-      <c r="P52" s="5">
+      <c r="K77" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="L77" s="5">
+        <v>0</v>
+      </c>
+      <c r="M77" s="6">
+        <v>45800.358541666668</v>
+      </c>
+      <c r="N77" s="6">
+        <v>45800.362858796296</v>
+      </c>
+      <c r="O77" s="5">
         <v>86217</v>
       </c>
-      <c r="Q52" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R52" s="5" t="s">
+      <c r="P77" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q77" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B53" s="5">
-        <v>52</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E53" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F53" s="5">
-        <v>20</v>
-      </c>
-      <c r="G53" s="5">
-        <v>12</v>
-      </c>
-      <c r="H53" s="5">
-        <v>59693</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J53" s="5">
-        <v>351</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M53" s="5">
-        <v>0</v>
-      </c>
-      <c r="N53" s="6">
-        <v>45800.183182870373</v>
-      </c>
-      <c r="O53" s="6">
-        <v>45800.188946759263</v>
-      </c>
-      <c r="P53" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B54" s="5">
-        <v>53</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E54" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F54" s="5">
-        <v>20</v>
-      </c>
-      <c r="G54" s="5">
-        <v>12</v>
-      </c>
-      <c r="H54" s="5">
-        <v>59693</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J54" s="5">
-        <v>351</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M54" s="5">
-        <v>0</v>
-      </c>
-      <c r="N54" s="6">
-        <v>45800.188958333332</v>
-      </c>
-      <c r="O54" s="6">
-        <v>45800.194722222222</v>
-      </c>
-      <c r="P54" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q54" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B55" s="5">
-        <v>54</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E55" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F55" s="5">
-        <v>20</v>
-      </c>
-      <c r="G55" s="5">
-        <v>12</v>
-      </c>
-      <c r="H55" s="5">
-        <v>59693</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J55" s="5">
-        <v>351</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M55" s="5">
-        <v>0</v>
-      </c>
-      <c r="N55" s="6">
-        <v>45800.194733796299</v>
-      </c>
-      <c r="O55" s="6">
-        <v>45800.200497685182</v>
-      </c>
-      <c r="P55" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q55" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R55" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B56" s="5">
-        <v>55</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E56" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F56" s="5">
-        <v>20</v>
-      </c>
-      <c r="G56" s="5">
-        <v>12</v>
-      </c>
-      <c r="H56" s="5">
-        <v>59693</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J56" s="5">
-        <v>351</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M56" s="5">
-        <v>0</v>
-      </c>
-      <c r="N56" s="6">
-        <v>45800.200509259259</v>
-      </c>
-      <c r="O56" s="6">
-        <v>45800.206273148149</v>
-      </c>
-      <c r="P56" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q56" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B57" s="5">
-        <v>56</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E57" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F57" s="5">
-        <v>20</v>
-      </c>
-      <c r="G57" s="5">
-        <v>7</v>
-      </c>
-      <c r="H57" s="5">
-        <v>59693</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J57" s="5">
-        <v>351</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M57" s="5">
-        <v>0</v>
-      </c>
-      <c r="N57" s="6">
-        <v>45800.206284722219</v>
-      </c>
-      <c r="O57" s="6">
-        <v>45800.212048611109</v>
-      </c>
-      <c r="P57" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q57" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R57" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B58" s="5">
-        <v>57</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E58" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F58" s="5">
-        <v>20</v>
-      </c>
-      <c r="G58" s="5">
-        <v>12</v>
-      </c>
-      <c r="H58" s="5">
-        <v>59694</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J58" s="5">
-        <v>351</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M58" s="5">
-        <v>0</v>
-      </c>
-      <c r="N58" s="6">
-        <v>45800.222916666666</v>
-      </c>
-      <c r="O58" s="6">
-        <v>45800.228680555556</v>
-      </c>
-      <c r="P58" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q58" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R58" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B59" s="5">
-        <v>58</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E59" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F59" s="5">
-        <v>20</v>
-      </c>
-      <c r="G59" s="5">
-        <v>12</v>
-      </c>
-      <c r="H59" s="5">
-        <v>59694</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J59" s="5">
-        <v>351</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M59" s="5">
-        <v>0</v>
-      </c>
-      <c r="N59" s="6">
-        <v>45800.228692129633</v>
-      </c>
-      <c r="O59" s="6">
-        <v>45800.234456018516</v>
-      </c>
-      <c r="P59" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q59" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R59" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B60" s="5">
-        <v>59</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E60" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F60" s="5">
-        <v>20</v>
-      </c>
-      <c r="G60" s="5">
-        <v>12</v>
-      </c>
-      <c r="H60" s="5">
-        <v>59694</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J60" s="5">
-        <v>351</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M60" s="5">
-        <v>0</v>
-      </c>
-      <c r="N60" s="6">
-        <v>45800.234467592592</v>
-      </c>
-      <c r="O60" s="6">
-        <v>45800.240231481483</v>
-      </c>
-      <c r="P60" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q60" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R60" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B61" s="5">
-        <v>60</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E61" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F61" s="5">
-        <v>20</v>
-      </c>
-      <c r="G61" s="5">
-        <v>12</v>
-      </c>
-      <c r="H61" s="5">
-        <v>59694</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J61" s="5">
-        <v>351</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M61" s="5">
-        <v>0</v>
-      </c>
-      <c r="N61" s="6">
-        <v>45800.240243055552</v>
-      </c>
-      <c r="O61" s="6">
-        <v>45800.246006944442</v>
-      </c>
-      <c r="P61" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q61" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R61" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B62" s="5">
-        <v>61</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E62" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F62" s="5">
-        <v>20</v>
-      </c>
-      <c r="G62" s="5">
-        <v>12</v>
-      </c>
-      <c r="H62" s="5">
-        <v>59694</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J62" s="5">
-        <v>351</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M62" s="5">
-        <v>0</v>
-      </c>
-      <c r="N62" s="6">
-        <v>45800.246018518519</v>
-      </c>
-      <c r="O62" s="6">
-        <v>45800.251782407409</v>
-      </c>
-      <c r="P62" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q62" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R62" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B63" s="5">
-        <v>62</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E63" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F63" s="5">
-        <v>20</v>
-      </c>
-      <c r="G63" s="5">
-        <v>12</v>
-      </c>
-      <c r="H63" s="5">
-        <v>59694</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J63" s="5">
-        <v>351</v>
-      </c>
-      <c r="L63" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M63" s="5">
-        <v>0</v>
-      </c>
-      <c r="N63" s="6">
-        <v>45800.251793981479</v>
-      </c>
-      <c r="O63" s="6">
-        <v>45800.257557870369</v>
-      </c>
-      <c r="P63" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q63" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R63" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B64" s="5">
-        <v>63</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E64" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F64" s="5">
-        <v>20</v>
-      </c>
-      <c r="G64" s="5">
-        <v>12</v>
-      </c>
-      <c r="H64" s="5">
-        <v>59695</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J64" s="5">
-        <v>351</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M64" s="5">
-        <v>0</v>
-      </c>
-      <c r="N64" s="6">
-        <v>45800.275000000001</v>
-      </c>
-      <c r="O64" s="6">
-        <v>45800.280763888892</v>
-      </c>
-      <c r="P64" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q64" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R64" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B65" s="5">
-        <v>64</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E65" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F65" s="5">
-        <v>20</v>
-      </c>
-      <c r="G65" s="5">
-        <v>12</v>
-      </c>
-      <c r="H65" s="5">
-        <v>59695</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J65" s="5">
-        <v>351</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M65" s="5">
-        <v>0</v>
-      </c>
-      <c r="N65" s="6">
-        <v>45800.280775462961</v>
-      </c>
-      <c r="O65" s="6">
-        <v>45800.286539351851</v>
-      </c>
-      <c r="P65" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q65" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R65" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B66" s="5">
-        <v>65</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E66" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F66" s="5">
-        <v>20</v>
-      </c>
-      <c r="G66" s="5">
-        <v>12</v>
-      </c>
-      <c r="H66" s="5">
-        <v>59695</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J66" s="5">
-        <v>351</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M66" s="5">
-        <v>0</v>
-      </c>
-      <c r="N66" s="6">
-        <v>45800.286550925928</v>
-      </c>
-      <c r="O66" s="6">
-        <v>45800.292314814818</v>
-      </c>
-      <c r="P66" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q66" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R66" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B67" s="5">
-        <v>66</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E67" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F67" s="5">
-        <v>20</v>
-      </c>
-      <c r="G67" s="5">
-        <v>12</v>
-      </c>
-      <c r="H67" s="5">
-        <v>59695</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J67" s="5">
-        <v>351</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M67" s="5">
-        <v>0</v>
-      </c>
-      <c r="N67" s="6">
-        <v>45800.292326388888</v>
-      </c>
-      <c r="O67" s="6">
-        <v>45800.298090277778</v>
-      </c>
-      <c r="P67" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q67" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R67" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B68" s="5">
-        <v>67</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E68" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F68" s="5">
-        <v>20</v>
-      </c>
-      <c r="G68" s="5">
-        <v>12</v>
-      </c>
-      <c r="H68" s="5">
-        <v>59695</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J68" s="5">
-        <v>351</v>
-      </c>
-      <c r="L68" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M68" s="5">
-        <v>0</v>
-      </c>
-      <c r="N68" s="6">
-        <v>45800.298101851855</v>
-      </c>
-      <c r="O68" s="6">
-        <v>45800.303865740738</v>
-      </c>
-      <c r="P68" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q68" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R68" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B69" s="5">
-        <v>68</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E69" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F69" s="5">
-        <v>20</v>
-      </c>
-      <c r="G69" s="5">
-        <v>12</v>
-      </c>
-      <c r="H69" s="5">
-        <v>59695</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J69" s="5">
-        <v>351</v>
-      </c>
-      <c r="L69" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M69" s="5">
-        <v>0</v>
-      </c>
-      <c r="N69" s="6">
-        <v>45800.303877314815</v>
-      </c>
-      <c r="O69" s="6">
-        <v>45800.309641203705</v>
-      </c>
-      <c r="P69" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R69" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B70" s="5">
-        <v>69</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E70" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F70" s="5">
-        <v>20</v>
-      </c>
-      <c r="G70" s="5">
-        <v>8</v>
-      </c>
-      <c r="H70" s="5">
-        <v>59695</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J70" s="5">
-        <v>351</v>
-      </c>
-      <c r="L70" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M70" s="5">
-        <v>0</v>
-      </c>
-      <c r="N70" s="6">
-        <v>45800.309652777774</v>
-      </c>
-      <c r="O70" s="6">
-        <v>45800.315416666665</v>
-      </c>
-      <c r="P70" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q70" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R70" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B71" s="5">
-        <v>70</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E71" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F71" s="5">
-        <v>20</v>
-      </c>
-      <c r="G71" s="5">
-        <v>12</v>
-      </c>
-      <c r="H71" s="5">
-        <v>59696</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J71" s="5">
-        <v>351</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M71" s="5">
-        <v>0</v>
-      </c>
-      <c r="N71" s="6">
-        <v>45800.327777777777</v>
-      </c>
-      <c r="O71" s="6">
-        <v>45800.333541666667</v>
-      </c>
-      <c r="P71" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q71" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R71" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B72" s="5">
-        <v>71</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E72" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F72" s="5">
-        <v>20</v>
-      </c>
-      <c r="G72" s="5">
-        <v>12</v>
-      </c>
-      <c r="H72" s="5">
-        <v>59696</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J72" s="5">
-        <v>351</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M72" s="5">
-        <v>0</v>
-      </c>
-      <c r="N72" s="6">
-        <v>45800.333553240744</v>
-      </c>
-      <c r="O72" s="6">
-        <v>45800.339317129627</v>
-      </c>
-      <c r="P72" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q72" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R72" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B73" s="5">
-        <v>72</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E73" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F73" s="5">
-        <v>20</v>
-      </c>
-      <c r="G73" s="5">
-        <v>12</v>
-      </c>
-      <c r="H73" s="5">
-        <v>59696</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J73" s="5">
-        <v>351</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M73" s="5">
-        <v>0</v>
-      </c>
-      <c r="N73" s="6">
-        <v>45800.339328703703</v>
-      </c>
-      <c r="O73" s="6">
-        <v>45800.345092592594</v>
-      </c>
-      <c r="P73" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q73" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R73" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B74" s="5">
-        <v>73</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E74" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F74" s="5">
-        <v>20</v>
-      </c>
-      <c r="G74" s="5">
-        <v>12</v>
-      </c>
-      <c r="H74" s="5">
-        <v>59696</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J74" s="5">
-        <v>351</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M74" s="5">
-        <v>0</v>
-      </c>
-      <c r="N74" s="6">
-        <v>45800.345104166663</v>
-      </c>
-      <c r="O74" s="6">
-        <v>45800.350868055553</v>
-      </c>
-      <c r="P74" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q74" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R74" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B75" s="5">
-        <v>74</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E75" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F75" s="5">
-        <v>20</v>
-      </c>
-      <c r="G75" s="5">
-        <v>12</v>
-      </c>
-      <c r="H75" s="5">
-        <v>59696</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J75" s="5">
-        <v>351</v>
-      </c>
-      <c r="L75" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M75" s="5">
-        <v>0</v>
-      </c>
-      <c r="N75" s="6">
-        <v>45800.35087962963</v>
-      </c>
-      <c r="O75" s="6">
-        <v>45800.35664351852</v>
-      </c>
-      <c r="P75" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q75" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R75" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B76" s="5">
-        <v>75</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E76" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F76" s="5">
-        <v>20</v>
-      </c>
-      <c r="G76" s="5">
-        <v>4</v>
-      </c>
-      <c r="H76" s="5">
-        <v>59696</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J76" s="5">
-        <v>351</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M76" s="5">
-        <v>0</v>
-      </c>
-      <c r="N76" s="6">
-        <v>45800.35665509259</v>
-      </c>
-      <c r="O76" s="6">
-        <v>45800.358541666668</v>
-      </c>
-      <c r="P76" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q76" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R76" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B77" s="5">
-        <v>76</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E77" s="5">
-        <v>5096905</v>
-      </c>
-      <c r="F77" s="5">
-        <v>20</v>
-      </c>
-      <c r="G77" s="5">
-        <v>9</v>
-      </c>
-      <c r="H77" s="5">
-        <v>59130</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J77" s="5">
-        <v>351</v>
-      </c>
-      <c r="L77" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="M77" s="5">
-        <v>0</v>
-      </c>
-      <c r="N77" s="6">
-        <v>45800.358541666668</v>
-      </c>
-      <c r="O77" s="6">
-        <v>45800.362858796296</v>
-      </c>
-      <c r="P77" s="5">
-        <v>86217</v>
-      </c>
-      <c r="Q77" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="R77" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N79" s="6"/>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M79" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1" xr:uid="{723F9AEC-0A63-4794-9C16-93C59AE1C0EB}"/>
+  <autoFilter ref="A1:U1" xr:uid="{723F9AEC-0A63-4794-9C16-93C59AE1C0EB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
